--- a/scripts/EAWAB4JSON.xlsx
+++ b/scripts/EAWAB4JSON.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\EnviroAtlas\FY2017_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\EnviroAtlas\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,10 +22,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ALL (TopicInBC)'!$A$1:$X$495</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BOUNDARY!$A$1:$AC$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EA_main!$A$1:$AC$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EA_main!$A$1:$AC$402</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PBS!$A$1:$W$90</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -5968,7 +5968,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28">
     <font>
       <sz val="11"/>
@@ -6747,6 +6747,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6782,6 +6799,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -32983,9 +33017,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W354"/>
+  <dimension ref="A1:W353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307:XFD307"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -48435,16 +48471,13 @@
       <c r="V306" s="2"/>
     </row>
     <row r="307" spans="1:22" ht="15" customHeight="1">
-      <c r="A307" s="2">
-        <v>306</v>
-      </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="53"/>
-      <c r="T307" s="7"/>
       <c r="V307" s="71"/>
     </row>
     <row r="308" spans="1:22" ht="15" customHeight="1">
       <c r="B308" s="2"/>
+      <c r="C308" s="53"/>
+      <c r="T308" s="99"/>
       <c r="V308" s="71"/>
     </row>
     <row r="309" spans="1:22" ht="15" customHeight="1">
@@ -48491,8 +48524,6 @@
     </row>
     <row r="316" spans="1:22" ht="15" customHeight="1">
       <c r="B316" s="2"/>
-      <c r="C316" s="53"/>
-      <c r="T316" s="99"/>
       <c r="V316" s="71"/>
     </row>
     <row r="317" spans="1:22" ht="15" customHeight="1">
@@ -48505,6 +48536,8 @@
     </row>
     <row r="319" spans="1:22" ht="15" customHeight="1">
       <c r="B319" s="2"/>
+      <c r="C319" s="100"/>
+      <c r="T319" s="7"/>
       <c r="V319" s="71"/>
     </row>
     <row r="320" spans="1:22" ht="15" customHeight="1">
@@ -48515,7 +48548,7 @@
     </row>
     <row r="321" spans="2:22" ht="15" customHeight="1">
       <c r="B321" s="2"/>
-      <c r="C321" s="100"/>
+      <c r="C321" s="53"/>
       <c r="T321" s="7"/>
       <c r="V321" s="71"/>
     </row>
@@ -48573,7 +48606,7 @@
       <c r="T330" s="7"/>
       <c r="V330" s="71"/>
     </row>
-    <row r="331" spans="2:22" ht="15" customHeight="1">
+    <row r="331" spans="2:22">
       <c r="B331" s="2"/>
       <c r="C331" s="53"/>
       <c r="T331" s="7"/>
@@ -48587,13 +48620,13 @@
     </row>
     <row r="333" spans="2:22">
       <c r="B333" s="2"/>
-      <c r="C333" s="53"/>
+      <c r="C333" s="101"/>
       <c r="T333" s="7"/>
       <c r="V333" s="71"/>
     </row>
     <row r="334" spans="2:22">
       <c r="B334" s="2"/>
-      <c r="C334" s="101"/>
+      <c r="C334" s="53"/>
       <c r="T334" s="7"/>
       <c r="V334" s="71"/>
     </row>
@@ -48612,7 +48645,7 @@
     <row r="337" spans="2:22">
       <c r="B337" s="2"/>
       <c r="C337" s="53"/>
-      <c r="T337" s="7"/>
+      <c r="T337" s="99"/>
       <c r="V337" s="71"/>
     </row>
     <row r="338" spans="2:22">
@@ -48647,12 +48680,12 @@
     </row>
     <row r="343" spans="2:22">
       <c r="B343" s="2"/>
-      <c r="C343" s="53"/>
-      <c r="T343" s="99"/>
       <c r="V343" s="71"/>
     </row>
     <row r="344" spans="2:22">
       <c r="B344" s="2"/>
+      <c r="C344" s="53"/>
+      <c r="T344" s="99"/>
       <c r="V344" s="71"/>
     </row>
     <row r="345" spans="2:22">
@@ -48670,7 +48703,7 @@
     <row r="347" spans="2:22">
       <c r="B347" s="2"/>
       <c r="C347" s="53"/>
-      <c r="T347" s="99"/>
+      <c r="T347" s="7"/>
       <c r="V347" s="71"/>
     </row>
     <row r="348" spans="2:22">
@@ -48681,7 +48714,7 @@
     </row>
     <row r="349" spans="2:22">
       <c r="B349" s="2"/>
-      <c r="C349" s="53"/>
+      <c r="C349" s="102"/>
       <c r="T349" s="7"/>
       <c r="V349" s="71"/>
     </row>
@@ -48705,15 +48738,9 @@
     </row>
     <row r="353" spans="2:22">
       <c r="B353" s="2"/>
-      <c r="C353" s="102"/>
-      <c r="T353" s="7"/>
+      <c r="C353" s="53"/>
+      <c r="T353" s="99"/>
       <c r="V353" s="71"/>
-    </row>
-    <row r="354" spans="2:22">
-      <c r="B354" s="2"/>
-      <c r="C354" s="53"/>
-      <c r="T354" s="99"/>
-      <c r="V354" s="71"/>
     </row>
   </sheetData>
   <sortState ref="A261:W282">

--- a/scripts/EAWAB4JSON.xlsx
+++ b/scripts/EAWAB4JSON.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\EnviroAtlas\FY2017_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\EnviroAtlas\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,12 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EA_main!$A$1:$X$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PBS!$A$1:$W$60</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13454" uniqueCount="2383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13451" uniqueCount="2383">
   <si>
     <t>Layer Name</t>
   </si>
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8540,6 +8540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8575,6 +8592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -40434,9 +40468,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z504"/>
+  <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q448" workbookViewId="0">
+      <selection activeCell="Q479" sqref="A479:XFD481"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40454,7 +40490,7 @@
     <col min="20" max="20" width="32.5703125" style="2" customWidth="1"/>
     <col min="21" max="21" width="34" style="2" customWidth="1"/>
     <col min="22" max="23" width="18.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="73.5703125" style="2" customWidth="1"/>
     <col min="25" max="25" width="18.7109375" style="3" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -60590,7 +60626,10 @@
         <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
-    <row r="305" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
       <c r="B305" s="2" t="s">
         <v>176</v>
       </c>
@@ -60648,91 +60687,91 @@
         <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
-    <row r="306" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z306" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z307" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z308" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z309" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z310" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z311" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z312" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z313" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z314" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z315" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z316" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z317" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z318" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z319" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z320" s="2" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -61423,23 +61462,26 @@
       </c>
     </row>
     <row r="479" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z479" s="2" t="s">
-        <v>2194</v>
+      <c r="Z479" s="2" t="str">
+        <f t="shared" ref="Z479:Z501" si="9">IF(LEN(TRIM(L479))=0,"",$L$1 &amp; " - " &amp; L479 &amp; "; ") &amp; IF(LEN(TRIM(M479))=0,"",$M$1 &amp; " - " &amp; M479 &amp; "; ") &amp; IF(LEN(TRIM(N479))=0,"",$N$1 &amp; " - " &amp; N479 &amp; "; ") &amp; IF(LEN(TRIM(O479))=0,"",$O$1 &amp; " - " &amp; O479 &amp; "; ") &amp; IF(LEN(TRIM(P479))=0,"",$P$1 &amp; " - " &amp; P479 &amp; "; ") &amp; IF(LEN(TRIM(Q479))=0,"",$Q$1 &amp; " - " &amp; Q479 &amp; "; ") &amp; IF(LEN(TRIM(R479))=0,"",$R$1 &amp; " - " &amp; R479 &amp; "; ")</f>
+        <v/>
       </c>
     </row>
     <row r="480" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z480" s="2" t="s">
-        <v>2194</v>
+      <c r="Z480" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="481" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z481" s="2" t="s">
-        <v>2194</v>
+      <c r="Z481" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="482" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z482" s="2" t="str">
-        <f t="shared" ref="Z482:Z504" si="9">IF(LEN(TRIM(L482))=0,"",$L$1 &amp; " - " &amp; L482 &amp; "; ") &amp; IF(LEN(TRIM(M482))=0,"",$M$1 &amp; " - " &amp; M482 &amp; "; ") &amp; IF(LEN(TRIM(N482))=0,"",$N$1 &amp; " - " &amp; N482 &amp; "; ") &amp; IF(LEN(TRIM(O482))=0,"",$O$1 &amp; " - " &amp; O482 &amp; "; ") &amp; IF(LEN(TRIM(P482))=0,"",$P$1 &amp; " - " &amp; P482 &amp; "; ") &amp; IF(LEN(TRIM(Q482))=0,"",$Q$1 &amp; " - " &amp; Q482 &amp; "; ") &amp; IF(LEN(TRIM(R482))=0,"",$R$1 &amp; " - " &amp; R482 &amp; "; ")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -61553,24 +61595,6 @@
     </row>
     <row r="501" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z501" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="502" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z502" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="503" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z503" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="504" spans="26:26" x14ac:dyDescent="0.25">
-      <c r="Z504" s="2" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>

--- a/scripts/EAWAB4JSON.xlsx
+++ b/scripts/EAWAB4JSON.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\EnviroAtlas\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBaynes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23820" windowHeight="10995" tabRatio="692" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25005" windowHeight="12165" tabRatio="692" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14212" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14212" uniqueCount="2463">
   <si>
     <t>Layer Name</t>
   </si>
@@ -7604,15 +7604,9 @@
     <t xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; </t>
   </si>
   <si>
-    <t xml:space="preserve">Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
-  </si>
-  <si>
     <t xml:space="preserve">Climate Stabilization - x; </t>
   </si>
   <si>
-    <t xml:space="preserve">Clean Air - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
-  </si>
-  <si>
     <t xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
   </si>
   <si>
@@ -7634,9 +7628,6 @@
     <t xml:space="preserve">Clean and Plentiful Water - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; </t>
   </si>
   <si>
-    <t xml:space="preserve">Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
-  </si>
-  <si>
     <t xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Recreation, Culture, and Aesthetics - x; </t>
   </si>
   <si>
@@ -7908,6 +7899,45 @@
   </si>
   <si>
     <t>EcoMarketEnablingConditions_fieldinfos.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - Land Cover: Type; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Natural Hazard Mitigation - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </t>
   </si>
 </sst>
 </file>
@@ -9701,10 +9731,10 @@
         <v>2315</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="AB1" s="72" t="s">
         <v>468</v>
@@ -9773,10 +9803,10 @@
         <v>2318</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB2" s="73" t="str">
         <f t="shared" ref="AB2:AB65" si="0">IF(LEN(TRIM(L2))=0,"",$L$1 &amp; " - " &amp; L2 &amp; "; ") &amp; IF(LEN(TRIM(M2))=0,"",$M$1 &amp; " - " &amp; M2 &amp; "; ") &amp; IF(LEN(TRIM(N2))=0,"",$N$1 &amp; " - " &amp; N2 &amp; "; ") &amp; IF(LEN(TRIM(O2))=0,"",$O$1 &amp; " - " &amp; O2 &amp; "; ") &amp; IF(LEN(TRIM(P2))=0,"",$P$1 &amp; " - " &amp; P2 &amp; "; ") &amp; IF(LEN(TRIM(Q2))=0,"",$Q$1 &amp; " - " &amp; Q2 &amp; "; ") &amp; IF(LEN(TRIM(R2))=0,"",$R$1 &amp; " - " &amp; R2 &amp; "; ")</f>
@@ -9846,10 +9876,10 @@
         <v>2318</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB3" s="73" t="str">
         <f t="shared" si="0"/>
@@ -9921,10 +9951,10 @@
         <v>2318</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB4" s="73" t="str">
         <f t="shared" si="0"/>
@@ -9994,10 +10024,10 @@
         <v>2318</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB5" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10067,10 +10097,10 @@
         <v>2318</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB6" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10142,10 +10172,10 @@
         <v>2318</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB7" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10217,10 +10247,10 @@
         <v>2318</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB8" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10292,10 +10322,10 @@
         <v>2318</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB9" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10365,10 +10395,10 @@
         <v>2318</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB10" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10439,10 +10469,10 @@
         <v>2318</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB11" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10514,10 +10544,10 @@
         <v>2318</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB12" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10594,10 +10624,10 @@
         <v>2318</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB13" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10668,10 +10698,10 @@
         <v>2318</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB14" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10745,10 +10775,10 @@
         <v>2318</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10819,10 +10849,10 @@
         <v>2318</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB16" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10894,10 +10924,10 @@
         <v>2318</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB17" s="73" t="str">
         <f t="shared" si="0"/>
@@ -10969,10 +10999,10 @@
         <v>2318</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB18" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11044,10 +11074,10 @@
         <v>2318</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB19" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11119,10 +11149,10 @@
         <v>2318</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11194,10 +11224,10 @@
         <v>2318</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB21" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11269,10 +11299,10 @@
         <v>2318</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB22" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11352,10 +11382,10 @@
         <v>2318</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB23" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11431,10 +11461,10 @@
         <v>2318</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB24" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11510,10 +11540,10 @@
         <v>2318</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB25" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11589,10 +11619,10 @@
         <v>2318</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB26" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11668,10 +11698,10 @@
         <v>2318</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB27" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11745,10 +11775,10 @@
         <v>2318</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB28" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11821,10 +11851,10 @@
         <v>2318</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB29" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11896,10 +11926,10 @@
         <v>2318</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB30" s="73" t="str">
         <f t="shared" si="0"/>
@@ -11969,10 +11999,10 @@
         <v>2318</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB31" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12042,10 +12072,10 @@
         <v>2318</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB32" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12115,10 +12145,10 @@
         <v>2318</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB33" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12189,10 +12219,10 @@
         <v>2318</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB34" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12262,10 +12292,10 @@
         <v>2318</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB35" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12337,10 +12367,10 @@
         <v>2318</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB36" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12412,10 +12442,10 @@
         <v>2318</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB37" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12488,10 +12518,10 @@
         <v>2318</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB38" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12563,10 +12593,10 @@
         <v>2318</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB39" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12640,10 +12670,10 @@
         <v>2318</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB40" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12723,10 +12753,10 @@
         <v>2318</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB41" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12802,10 +12832,10 @@
         <v>2318</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB42" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12881,10 +12911,10 @@
         <v>2318</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB43" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12960,10 +12990,10 @@
         <v>2318</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB44" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13039,10 +13069,10 @@
         <v>2318</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB45" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13120,10 +13150,10 @@
         <v>2318</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB46" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13195,10 +13225,10 @@
         <v>2318</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB47" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13268,10 +13298,10 @@
         <v>2318</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB48" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13342,10 +13372,10 @@
         <v>2318</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB49" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13415,10 +13445,10 @@
         <v>2318</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB50" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13488,10 +13518,10 @@
         <v>2318</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB51" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13561,10 +13591,10 @@
         <v>2318</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB52" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13634,10 +13664,10 @@
         <v>2318</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB53" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13707,10 +13737,10 @@
         <v>2318</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB54" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13782,10 +13812,10 @@
         <v>2318</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB55" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13855,10 +13885,10 @@
         <v>2318</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB56" s="73" t="str">
         <f t="shared" si="0"/>
@@ -13928,10 +13958,10 @@
         <v>2318</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB57" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14001,10 +14031,10 @@
         <v>2318</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB58" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14074,10 +14104,10 @@
         <v>2318</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB59" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14147,10 +14177,10 @@
         <v>2318</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB60" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14220,10 +14250,10 @@
         <v>2318</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB61" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14293,10 +14323,10 @@
         <v>2318</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB62" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14368,10 +14398,10 @@
         <v>2318</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB63" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14441,10 +14471,10 @@
         <v>2318</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB64" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14514,10 +14544,10 @@
         <v>2318</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB65" s="73" t="str">
         <f t="shared" si="0"/>
@@ -14587,10 +14617,10 @@
         <v>2318</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB66" s="73" t="str">
         <f t="shared" ref="AB66:AB129" si="1">IF(LEN(TRIM(L66))=0,"",$L$1 &amp; " - " &amp; L66 &amp; "; ") &amp; IF(LEN(TRIM(M66))=0,"",$M$1 &amp; " - " &amp; M66 &amp; "; ") &amp; IF(LEN(TRIM(N66))=0,"",$N$1 &amp; " - " &amp; N66 &amp; "; ") &amp; IF(LEN(TRIM(O66))=0,"",$O$1 &amp; " - " &amp; O66 &amp; "; ") &amp; IF(LEN(TRIM(P66))=0,"",$P$1 &amp; " - " &amp; P66 &amp; "; ") &amp; IF(LEN(TRIM(Q66))=0,"",$Q$1 &amp; " - " &amp; Q66 &amp; "; ") &amp; IF(LEN(TRIM(R66))=0,"",$R$1 &amp; " - " &amp; R66 &amp; "; ")</f>
@@ -14660,10 +14690,10 @@
         <v>2318</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB67" s="73" t="str">
         <f t="shared" si="1"/>
@@ -14733,10 +14763,10 @@
         <v>2318</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB68" s="73" t="str">
         <f t="shared" si="1"/>
@@ -14806,10 +14836,10 @@
         <v>2318</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB69" s="73" t="str">
         <f t="shared" si="1"/>
@@ -14879,10 +14909,10 @@
         <v>2318</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB70" s="73" t="str">
         <f t="shared" si="1"/>
@@ -14952,10 +14982,10 @@
         <v>2318</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB71" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15029,10 +15059,10 @@
         <v>2318</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB72" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15102,10 +15132,10 @@
         <v>2318</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB73" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15175,10 +15205,10 @@
         <v>2318</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB74" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15254,10 +15284,10 @@
         <v>2318</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB75" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15333,10 +15363,10 @@
         <v>2318</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB76" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15414,10 +15444,10 @@
         <v>2318</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB77" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15487,10 +15517,10 @@
         <v>2318</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB78" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15560,10 +15590,10 @@
         <v>2318</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB79" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15633,10 +15663,10 @@
         <v>2318</v>
       </c>
       <c r="Z80" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB80" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15706,10 +15736,10 @@
         <v>2318</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB81" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15779,10 +15809,10 @@
         <v>2318</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA82" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB82" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15852,10 +15882,10 @@
         <v>2318</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB83" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15925,10 +15955,10 @@
         <v>2318</v>
       </c>
       <c r="Z84" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB84" s="73" t="str">
         <f t="shared" si="1"/>
@@ -15998,10 +16028,10 @@
         <v>2318</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA85" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB85" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16071,10 +16101,10 @@
         <v>2318</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA86" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB86" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16110,7 +16140,7 @@
         <v>834</v>
       </c>
       <c r="J87" s="108" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="K87" s="20">
         <v>0</v>
@@ -16156,10 +16186,10 @@
         <v>2317</v>
       </c>
       <c r="Z87" s="120" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="AA87" s="120" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="AB87" s="67" t="str">
         <f t="shared" si="1"/>
@@ -16234,7 +16264,7 @@
         <v>2317</v>
       </c>
       <c r="Z88" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB88" s="67" t="str">
         <f t="shared" si="1"/>
@@ -16319,10 +16349,10 @@
         <v>2317</v>
       </c>
       <c r="Z89" s="125" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="AA89" s="125" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="AB89" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16397,10 +16427,10 @@
         <v>2317</v>
       </c>
       <c r="Z90" s="125" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="AA90" s="125" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="AB90" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16479,10 +16509,10 @@
         <v>2317</v>
       </c>
       <c r="Z91" s="125" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="AA91" s="125" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="AB91" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16561,10 +16591,10 @@
         <v>2317</v>
       </c>
       <c r="Z92" s="125" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="AA92" s="125" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="AB92" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16643,10 +16673,10 @@
         <v>2317</v>
       </c>
       <c r="Z93" s="125" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="AA93" s="125" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="AB93" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16725,10 +16755,10 @@
         <v>2317</v>
       </c>
       <c r="Z94" s="125" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="AA94" s="125" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="AB94" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16767,7 +16797,7 @@
         <v>839</v>
       </c>
       <c r="J95" s="113" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K95" s="22">
         <v>0</v>
@@ -16801,10 +16831,10 @@
         <v>2317</v>
       </c>
       <c r="Z95" s="125" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="AA95" s="125" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="AB95" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16887,10 +16917,10 @@
         <v>2317</v>
       </c>
       <c r="Z96" s="125" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="AA96" s="125" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="AB96" s="73" t="str">
         <f t="shared" si="1"/>
@@ -16965,10 +16995,10 @@
         <v>2317</v>
       </c>
       <c r="Z97" s="126" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="AA97" s="125" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="AB97" s="73" t="str">
         <f t="shared" si="1"/>
@@ -17051,10 +17081,10 @@
         <v>2317</v>
       </c>
       <c r="Z98" s="125" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="AA98" s="125" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="AB98" s="73" t="str">
         <f t="shared" si="1"/>
@@ -17137,10 +17167,10 @@
         <v>2317</v>
       </c>
       <c r="Z99" s="125" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="AA99" s="125" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="AB99" s="73" t="str">
         <f t="shared" si="1"/>
@@ -17213,10 +17243,10 @@
         <v>2318</v>
       </c>
       <c r="Z100" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA100" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB100" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17287,10 +17317,10 @@
         <v>2318</v>
       </c>
       <c r="Z101" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA101" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB101" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17360,10 +17390,10 @@
         <v>2318</v>
       </c>
       <c r="Z102" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA102" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB102" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17433,10 +17463,10 @@
         <v>2318</v>
       </c>
       <c r="Z103" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA103" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB103" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17506,10 +17536,10 @@
         <v>2318</v>
       </c>
       <c r="Z104" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA104" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB104" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17579,10 +17609,10 @@
         <v>2318</v>
       </c>
       <c r="Z105" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA105" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB105" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17652,10 +17682,10 @@
         <v>2318</v>
       </c>
       <c r="Z106" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA106" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB106" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17725,10 +17755,10 @@
         <v>2318</v>
       </c>
       <c r="Z107" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA107" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB107" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17798,10 +17828,10 @@
         <v>2318</v>
       </c>
       <c r="Z108" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA108" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB108" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17871,10 +17901,10 @@
         <v>2318</v>
       </c>
       <c r="Z109" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA109" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB109" s="67" t="str">
         <f t="shared" si="1"/>
@@ -17944,10 +17974,10 @@
         <v>2318</v>
       </c>
       <c r="Z110" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA110" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB110" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18017,10 +18047,10 @@
         <v>2318</v>
       </c>
       <c r="Z111" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA111" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB111" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18090,10 +18120,10 @@
         <v>2318</v>
       </c>
       <c r="Z112" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA112" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB112" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18167,10 +18197,10 @@
         <v>2318</v>
       </c>
       <c r="Z113" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA113" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB113" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18245,10 +18275,10 @@
         <v>2318</v>
       </c>
       <c r="Z114" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA114" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB114" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18323,10 +18353,10 @@
         <v>2318</v>
       </c>
       <c r="Z115" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA115" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB115" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18403,10 +18433,10 @@
         <v>2318</v>
       </c>
       <c r="Z116" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA116" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB116" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18483,10 +18513,10 @@
         <v>2318</v>
       </c>
       <c r="Z117" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA117" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB117" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18563,10 +18593,10 @@
         <v>2318</v>
       </c>
       <c r="Z118" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA118" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB118" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18643,10 +18673,10 @@
         <v>2318</v>
       </c>
       <c r="Z119" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA119" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB119" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18723,10 +18753,10 @@
         <v>2318</v>
       </c>
       <c r="Z120" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA120" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB120" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18803,10 +18833,10 @@
         <v>2318</v>
       </c>
       <c r="Z121" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA121" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB121" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18879,10 +18909,10 @@
         <v>2318</v>
       </c>
       <c r="Z122" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA122" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB122" s="67" t="str">
         <f t="shared" si="1"/>
@@ -18955,10 +18985,10 @@
         <v>2318</v>
       </c>
       <c r="Z123" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA123" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB123" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19031,10 +19061,10 @@
         <v>2318</v>
       </c>
       <c r="Z124" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA124" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB124" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19117,10 +19147,10 @@
         <v>2318</v>
       </c>
       <c r="Z125" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA125" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB125" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19193,10 +19223,10 @@
         <v>2318</v>
       </c>
       <c r="Z126" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA126" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB126" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19269,10 +19299,10 @@
         <v>2318</v>
       </c>
       <c r="Z127" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA127" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB127" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19345,10 +19375,10 @@
         <v>2318</v>
       </c>
       <c r="Z128" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA128" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB128" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19421,10 +19451,10 @@
         <v>2318</v>
       </c>
       <c r="Z129" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA129" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB129" s="67" t="str">
         <f t="shared" si="1"/>
@@ -19497,10 +19527,10 @@
         <v>2318</v>
       </c>
       <c r="Z130" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA130" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB130" s="67" t="str">
         <f t="shared" ref="AB130:AB193" si="2">IF(LEN(TRIM(L130))=0,"",$L$1 &amp; " - " &amp; L130 &amp; "; ") &amp; IF(LEN(TRIM(M130))=0,"",$M$1 &amp; " - " &amp; M130 &amp; "; ") &amp; IF(LEN(TRIM(N130))=0,"",$N$1 &amp; " - " &amp; N130 &amp; "; ") &amp; IF(LEN(TRIM(O130))=0,"",$O$1 &amp; " - " &amp; O130 &amp; "; ") &amp; IF(LEN(TRIM(P130))=0,"",$P$1 &amp; " - " &amp; P130 &amp; "; ") &amp; IF(LEN(TRIM(Q130))=0,"",$Q$1 &amp; " - " &amp; Q130 &amp; "; ") &amp; IF(LEN(TRIM(R130))=0,"",$R$1 &amp; " - " &amp; R130 &amp; "; ")</f>
@@ -19575,10 +19605,10 @@
         <v>2318</v>
       </c>
       <c r="Z131" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA131" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB131" s="67" t="str">
         <f t="shared" si="2"/>
@@ -19651,10 +19681,10 @@
         <v>2318</v>
       </c>
       <c r="Z132" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA132" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB132" s="67" t="str">
         <f t="shared" si="2"/>
@@ -19727,10 +19757,10 @@
         <v>2318</v>
       </c>
       <c r="Z133" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA133" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB133" s="67" t="str">
         <f t="shared" si="2"/>
@@ -19803,10 +19833,10 @@
         <v>2318</v>
       </c>
       <c r="Z134" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA134" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB134" s="67" t="str">
         <f t="shared" si="2"/>
@@ -19879,10 +19909,10 @@
         <v>2318</v>
       </c>
       <c r="Z135" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA135" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB135" s="67" t="str">
         <f t="shared" si="2"/>
@@ -19955,10 +19985,10 @@
         <v>2318</v>
       </c>
       <c r="Z136" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA136" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB136" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20031,10 +20061,10 @@
         <v>2318</v>
       </c>
       <c r="Z137" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA137" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB137" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20107,10 +20137,10 @@
         <v>2318</v>
       </c>
       <c r="Z138" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA138" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB138" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20183,10 +20213,10 @@
         <v>2318</v>
       </c>
       <c r="Z139" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA139" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB139" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20259,10 +20289,10 @@
         <v>2318</v>
       </c>
       <c r="Z140" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA140" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB140" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20339,10 +20369,10 @@
         <v>2318</v>
       </c>
       <c r="Z141" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA141" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB141" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20415,10 +20445,10 @@
         <v>2318</v>
       </c>
       <c r="Z142" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA142" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB142" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20493,10 +20523,10 @@
         <v>2318</v>
       </c>
       <c r="Z143" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA143" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB143" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20571,10 +20601,10 @@
         <v>2318</v>
       </c>
       <c r="Z144" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA144" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB144" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20649,10 +20679,10 @@
         <v>2318</v>
       </c>
       <c r="Z145" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA145" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB145" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20727,10 +20757,10 @@
         <v>2318</v>
       </c>
       <c r="Z146" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA146" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB146" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20805,10 +20835,10 @@
         <v>2318</v>
       </c>
       <c r="Z147" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA147" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB147" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20881,10 +20911,10 @@
         <v>2318</v>
       </c>
       <c r="Z148" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA148" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB148" s="67" t="str">
         <f t="shared" si="2"/>
@@ -20944,7 +20974,7 @@
         <v>2095</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V149" s="2" t="s">
         <v>1554</v>
@@ -20959,10 +20989,10 @@
         <v>2318</v>
       </c>
       <c r="Z149" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA149" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB149" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21022,7 +21052,7 @@
         <v>2096</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V150" s="2" t="s">
         <v>1554</v>
@@ -21037,10 +21067,10 @@
         <v>2318</v>
       </c>
       <c r="Z150" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA150" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB150" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21100,7 +21130,7 @@
         <v>2096</v>
       </c>
       <c r="U151" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V151" s="2" t="s">
         <v>1554</v>
@@ -21115,10 +21145,10 @@
         <v>2318</v>
       </c>
       <c r="Z151" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA151" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB151" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21178,7 +21208,7 @@
         <v>2096</v>
       </c>
       <c r="U152" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V152" s="2" t="s">
         <v>1554</v>
@@ -21193,10 +21223,10 @@
         <v>2318</v>
       </c>
       <c r="Z152" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA152" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB152" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21256,7 +21286,7 @@
         <v>2096</v>
       </c>
       <c r="U153" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V153" s="2" t="s">
         <v>1554</v>
@@ -21271,10 +21301,10 @@
         <v>2318</v>
       </c>
       <c r="Z153" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA153" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB153" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21347,10 +21377,10 @@
         <v>2318</v>
       </c>
       <c r="Z154" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA154" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB154" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21425,10 +21455,10 @@
         <v>2318</v>
       </c>
       <c r="Z155" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA155" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB155" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21503,10 +21533,10 @@
         <v>2318</v>
       </c>
       <c r="Z156" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA156" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB156" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21581,10 +21611,10 @@
         <v>2318</v>
       </c>
       <c r="Z157" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA157" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB157" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21659,10 +21689,10 @@
         <v>2318</v>
       </c>
       <c r="Z158" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA158" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB158" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21735,10 +21765,10 @@
         <v>2318</v>
       </c>
       <c r="Z159" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA159" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB159" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21813,10 +21843,10 @@
         <v>2318</v>
       </c>
       <c r="Z160" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA160" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB160" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21891,10 +21921,10 @@
         <v>2318</v>
       </c>
       <c r="Z161" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA161" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB161" s="67" t="str">
         <f t="shared" si="2"/>
@@ -21969,10 +21999,10 @@
         <v>2318</v>
       </c>
       <c r="Z162" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA162" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB162" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22047,10 +22077,10 @@
         <v>2318</v>
       </c>
       <c r="Z163" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA163" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB163" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22125,10 +22155,10 @@
         <v>2318</v>
       </c>
       <c r="Z164" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA164" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB164" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22201,10 +22231,10 @@
         <v>2318</v>
       </c>
       <c r="Z165" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA165" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB165" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22264,7 +22294,7 @@
         <v>2096</v>
       </c>
       <c r="U166" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V166" s="2" t="s">
         <v>1554</v>
@@ -22279,10 +22309,10 @@
         <v>2318</v>
       </c>
       <c r="Z166" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA166" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB166" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22342,7 +22372,7 @@
         <v>2096</v>
       </c>
       <c r="U167" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V167" s="2" t="s">
         <v>1554</v>
@@ -22357,10 +22387,10 @@
         <v>2318</v>
       </c>
       <c r="Z167" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA167" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB167" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22420,7 +22450,7 @@
         <v>2096</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V168" s="2" t="s">
         <v>1554</v>
@@ -22435,10 +22465,10 @@
         <v>2318</v>
       </c>
       <c r="Z168" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA168" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB168" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22498,7 +22528,7 @@
         <v>2096</v>
       </c>
       <c r="U169" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V169" s="2" t="s">
         <v>1554</v>
@@ -22513,10 +22543,10 @@
         <v>2318</v>
       </c>
       <c r="Z169" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA169" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB169" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22576,7 +22606,7 @@
         <v>2096</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V170" s="2" t="s">
         <v>1554</v>
@@ -22591,10 +22621,10 @@
         <v>2318</v>
       </c>
       <c r="Z170" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA170" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB170" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22667,10 +22697,10 @@
         <v>2318</v>
       </c>
       <c r="Z171" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA171" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB171" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22745,10 +22775,10 @@
         <v>2318</v>
       </c>
       <c r="Z172" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA172" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB172" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22823,10 +22853,10 @@
         <v>2318</v>
       </c>
       <c r="Z173" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA173" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB173" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22901,10 +22931,10 @@
         <v>2318</v>
       </c>
       <c r="Z174" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA174" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB174" s="67" t="str">
         <f t="shared" si="2"/>
@@ -22979,10 +23009,10 @@
         <v>2318</v>
       </c>
       <c r="Z175" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA175" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB175" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23055,10 +23085,10 @@
         <v>2318</v>
       </c>
       <c r="Z176" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA176" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB176" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23133,10 +23163,10 @@
         <v>2318</v>
       </c>
       <c r="Z177" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA177" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB177" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23209,10 +23239,10 @@
         <v>2318</v>
       </c>
       <c r="Z178" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA178" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB178" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23287,10 +23317,10 @@
         <v>2318</v>
       </c>
       <c r="Z179" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA179" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB179" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23365,10 +23395,10 @@
         <v>2318</v>
       </c>
       <c r="Z180" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA180" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB180" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23443,10 +23473,10 @@
         <v>2318</v>
       </c>
       <c r="Z181" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA181" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB181" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23521,10 +23551,10 @@
         <v>2318</v>
       </c>
       <c r="Z182" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA182" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB182" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23599,10 +23629,10 @@
         <v>2318</v>
       </c>
       <c r="Z183" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA183" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB183" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23675,10 +23705,10 @@
         <v>2318</v>
       </c>
       <c r="Z184" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA184" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB184" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23738,7 +23768,7 @@
         <v>2095</v>
       </c>
       <c r="U185" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V185" s="2" t="s">
         <v>1554</v>
@@ -23753,10 +23783,10 @@
         <v>2318</v>
       </c>
       <c r="Z185" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA185" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB185" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23816,7 +23846,7 @@
         <v>2095</v>
       </c>
       <c r="U186" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V186" s="2" t="s">
         <v>1554</v>
@@ -23831,10 +23861,10 @@
         <v>2318</v>
       </c>
       <c r="Z186" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA186" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB186" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23894,7 +23924,7 @@
         <v>2095</v>
       </c>
       <c r="U187" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V187" s="2" t="s">
         <v>1554</v>
@@ -23909,10 +23939,10 @@
         <v>2318</v>
       </c>
       <c r="Z187" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA187" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB187" s="67" t="str">
         <f t="shared" si="2"/>
@@ -23972,7 +24002,7 @@
         <v>2095</v>
       </c>
       <c r="U188" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V188" s="2" t="s">
         <v>1554</v>
@@ -23987,10 +24017,10 @@
         <v>2318</v>
       </c>
       <c r="Z188" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA188" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB188" s="67" t="str">
         <f t="shared" si="2"/>
@@ -24050,7 +24080,7 @@
         <v>2095</v>
       </c>
       <c r="U189" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V189" s="2" t="s">
         <v>1554</v>
@@ -24065,10 +24095,10 @@
         <v>2318</v>
       </c>
       <c r="Z189" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA189" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB189" s="67" t="str">
         <f t="shared" si="2"/>
@@ -24141,10 +24171,10 @@
         <v>2318</v>
       </c>
       <c r="Z190" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA190" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB190" s="67" t="str">
         <f t="shared" si="2"/>
@@ -24219,10 +24249,10 @@
         <v>2318</v>
       </c>
       <c r="Z191" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA191" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB191" s="67" t="str">
         <f t="shared" si="2"/>
@@ -24297,10 +24327,10 @@
         <v>2318</v>
       </c>
       <c r="Z192" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA192" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB192" s="67" t="str">
         <f t="shared" si="2"/>
@@ -24375,10 +24405,10 @@
         <v>2318</v>
       </c>
       <c r="Z193" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA193" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB193" s="67" t="str">
         <f t="shared" si="2"/>
@@ -24453,10 +24483,10 @@
         <v>2318</v>
       </c>
       <c r="Z194" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA194" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB194" s="67" t="str">
         <f t="shared" ref="AB194:AB203" si="3">IF(LEN(TRIM(L194))=0,"",$L$1 &amp; " - " &amp; L194 &amp; "; ") &amp; IF(LEN(TRIM(M194))=0,"",$M$1 &amp; " - " &amp; M194 &amp; "; ") &amp; IF(LEN(TRIM(N194))=0,"",$N$1 &amp; " - " &amp; N194 &amp; "; ") &amp; IF(LEN(TRIM(O194))=0,"",$O$1 &amp; " - " &amp; O194 &amp; "; ") &amp; IF(LEN(TRIM(P194))=0,"",$P$1 &amp; " - " &amp; P194 &amp; "; ") &amp; IF(LEN(TRIM(Q194))=0,"",$Q$1 &amp; " - " &amp; Q194 &amp; "; ") &amp; IF(LEN(TRIM(R194))=0,"",$R$1 &amp; " - " &amp; R194 &amp; "; ")</f>
@@ -24518,7 +24548,7 @@
         <v>2101</v>
       </c>
       <c r="U195" s="2" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="V195" s="2" t="s">
         <v>1554</v>
@@ -24533,10 +24563,10 @@
         <v>2318</v>
       </c>
       <c r="Z195" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA195" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB195" s="67" t="str">
         <f t="shared" si="3"/>
@@ -24598,7 +24628,7 @@
         <v>2102</v>
       </c>
       <c r="U196" s="2" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="V196" s="2" t="s">
         <v>1554</v>
@@ -24613,10 +24643,10 @@
         <v>2318</v>
       </c>
       <c r="Z196" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA196" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB196" s="67" t="str">
         <f t="shared" si="3"/>
@@ -24676,7 +24706,7 @@
         <v>2103</v>
       </c>
       <c r="U197" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V197" s="2" t="s">
         <v>1554</v>
@@ -24691,10 +24721,10 @@
         <v>2318</v>
       </c>
       <c r="Z197" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA197" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB197" s="67" t="str">
         <f t="shared" si="3"/>
@@ -24754,7 +24784,7 @@
         <v>2104</v>
       </c>
       <c r="U198" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V198" s="2" t="s">
         <v>1554</v>
@@ -24769,10 +24799,10 @@
         <v>2318</v>
       </c>
       <c r="Z198" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA198" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB198" s="67" t="str">
         <f t="shared" si="3"/>
@@ -24832,7 +24862,7 @@
         <v>2103</v>
       </c>
       <c r="U199" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V199" s="2" t="s">
         <v>1554</v>
@@ -24847,10 +24877,10 @@
         <v>2318</v>
       </c>
       <c r="Z199" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA199" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB199" s="67" t="str">
         <f t="shared" si="3"/>
@@ -24910,7 +24940,7 @@
         <v>2104</v>
       </c>
       <c r="U200" s="2" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="V200" s="2" t="s">
         <v>1554</v>
@@ -24925,10 +24955,10 @@
         <v>2318</v>
       </c>
       <c r="Z200" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA200" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB200" s="67" t="str">
         <f t="shared" si="3"/>
@@ -25001,10 +25031,10 @@
         <v>2318</v>
       </c>
       <c r="Z201" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA201" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB201" s="67" t="str">
         <f t="shared" si="3"/>
@@ -25077,10 +25107,10 @@
         <v>2318</v>
       </c>
       <c r="Z202" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA202" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB202" s="67" t="str">
         <f t="shared" si="3"/>
@@ -25159,10 +25189,10 @@
         <v>2318</v>
       </c>
       <c r="Z203" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA203" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB203" s="67" t="str">
         <f t="shared" si="3"/>
@@ -25232,10 +25262,10 @@
         <v>2318</v>
       </c>
       <c r="Z204" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA204" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB204" s="67"/>
       <c r="AC204" s="2" t="s">
@@ -25305,10 +25335,10 @@
         <v>2318</v>
       </c>
       <c r="Z205" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA205" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB205" s="67" t="str">
         <f t="shared" ref="AB205:AB236" si="4">IF(LEN(TRIM(L205))=0,"",$L$1 &amp; " - " &amp; L205 &amp; "; ") &amp; IF(LEN(TRIM(M205))=0,"",$M$1 &amp; " - " &amp; M205 &amp; "; ") &amp; IF(LEN(TRIM(N205))=0,"",$N$1 &amp; " - " &amp; N205 &amp; "; ") &amp; IF(LEN(TRIM(O205))=0,"",$O$1 &amp; " - " &amp; O205 &amp; "; ") &amp; IF(LEN(TRIM(P205))=0,"",$P$1 &amp; " - " &amp; P205 &amp; "; ") &amp; IF(LEN(TRIM(Q205))=0,"",$Q$1 &amp; " - " &amp; Q205 &amp; "; ") &amp; IF(LEN(TRIM(R205))=0,"",$R$1 &amp; " - " &amp; R205 &amp; "; ")</f>
@@ -25383,10 +25413,10 @@
         <v>2318</v>
       </c>
       <c r="Z206" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA206" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB206" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25463,10 +25493,10 @@
         <v>2318</v>
       </c>
       <c r="Z207" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA207" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB207" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25539,10 +25569,10 @@
         <v>2318</v>
       </c>
       <c r="Z208" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA208" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB208" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25627,10 +25657,10 @@
         <v>2318</v>
       </c>
       <c r="Z209" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA209" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB209" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25705,10 +25735,10 @@
         <v>2318</v>
       </c>
       <c r="Z210" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA210" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB210" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25791,10 +25821,10 @@
         <v>2318</v>
       </c>
       <c r="Z211" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA211" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB211" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25879,10 +25909,10 @@
         <v>2318</v>
       </c>
       <c r="Z212" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA212" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB212" s="67" t="str">
         <f t="shared" si="4"/>
@@ -25965,10 +25995,10 @@
         <v>2318</v>
       </c>
       <c r="Z213" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA213" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB213" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26045,10 +26075,10 @@
         <v>2318</v>
       </c>
       <c r="Z214" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA214" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB214" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26123,10 +26153,10 @@
         <v>2318</v>
       </c>
       <c r="Z215" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA215" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB215" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26203,10 +26233,10 @@
         <v>2318</v>
       </c>
       <c r="Z216" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA216" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB216" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26281,10 +26311,10 @@
         <v>2318</v>
       </c>
       <c r="Z217" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA217" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB217" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26359,10 +26389,10 @@
         <v>2318</v>
       </c>
       <c r="Z218" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA218" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB218" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26437,10 +26467,10 @@
         <v>2318</v>
       </c>
       <c r="Z219" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA219" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB219" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26525,10 +26555,10 @@
         <v>2318</v>
       </c>
       <c r="Z220" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA220" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB220" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26603,10 +26633,10 @@
         <v>2318</v>
       </c>
       <c r="Z221" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA221" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB221" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26681,10 +26711,10 @@
         <v>2318</v>
       </c>
       <c r="Z222" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA222" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB222" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26759,10 +26789,10 @@
         <v>2318</v>
       </c>
       <c r="Z223" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA223" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB223" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26837,10 +26867,10 @@
         <v>2318</v>
       </c>
       <c r="Z224" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA224" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB224" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26915,10 +26945,10 @@
         <v>2318</v>
       </c>
       <c r="Z225" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA225" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB225" s="67" t="str">
         <f t="shared" si="4"/>
@@ -26993,10 +27023,10 @@
         <v>2318</v>
       </c>
       <c r="Z226" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA226" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB226" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27071,10 +27101,10 @@
         <v>2318</v>
       </c>
       <c r="Z227" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA227" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB227" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27149,10 +27179,10 @@
         <v>2318</v>
       </c>
       <c r="Z228" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA228" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB228" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27227,10 +27257,10 @@
         <v>2318</v>
       </c>
       <c r="Z229" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA229" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB229" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27305,10 +27335,10 @@
         <v>2318</v>
       </c>
       <c r="Z230" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA230" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB230" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27391,10 +27421,10 @@
         <v>2318</v>
       </c>
       <c r="Z231" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA231" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB231" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27473,10 +27503,10 @@
         <v>2318</v>
       </c>
       <c r="Z232" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA232" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB232" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27551,10 +27581,10 @@
         <v>2318</v>
       </c>
       <c r="Z233" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA233" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB233" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27631,10 +27661,10 @@
         <v>2318</v>
       </c>
       <c r="Z234" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA234" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB234" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27711,10 +27741,10 @@
         <v>2318</v>
       </c>
       <c r="Z235" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA235" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB235" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27797,10 +27827,10 @@
         <v>2318</v>
       </c>
       <c r="Z236" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA236" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB236" s="67" t="str">
         <f t="shared" si="4"/>
@@ -27881,10 +27911,10 @@
         <v>2318</v>
       </c>
       <c r="Z237" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA237" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB237" s="67" t="str">
         <f t="shared" ref="AB237:AB268" si="5">IF(LEN(TRIM(L237))=0,"",$L$1 &amp; " - " &amp; L237 &amp; "; ") &amp; IF(LEN(TRIM(M237))=0,"",$M$1 &amp; " - " &amp; M237 &amp; "; ") &amp; IF(LEN(TRIM(N237))=0,"",$N$1 &amp; " - " &amp; N237 &amp; "; ") &amp; IF(LEN(TRIM(O237))=0,"",$O$1 &amp; " - " &amp; O237 &amp; "; ") &amp; IF(LEN(TRIM(P237))=0,"",$P$1 &amp; " - " &amp; P237 &amp; "; ") &amp; IF(LEN(TRIM(Q237))=0,"",$Q$1 &amp; " - " &amp; Q237 &amp; "; ") &amp; IF(LEN(TRIM(R237))=0,"",$R$1 &amp; " - " &amp; R237 &amp; "; ")</f>
@@ -27961,10 +27991,10 @@
         <v>2318</v>
       </c>
       <c r="Z238" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA238" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB238" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28039,10 +28069,10 @@
         <v>2318</v>
       </c>
       <c r="Z239" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA239" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB239" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28117,10 +28147,10 @@
         <v>2318</v>
       </c>
       <c r="Z240" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA240" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB240" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28205,10 +28235,10 @@
         <v>2318</v>
       </c>
       <c r="Z241" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA241" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB241" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28283,10 +28313,10 @@
         <v>2318</v>
       </c>
       <c r="Z242" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA242" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB242" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28359,10 +28389,10 @@
         <v>2318</v>
       </c>
       <c r="Z243" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA243" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB243" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28439,10 +28469,10 @@
         <v>2318</v>
       </c>
       <c r="Z244" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA244" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB244" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28519,10 +28549,10 @@
         <v>2318</v>
       </c>
       <c r="Z245" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA245" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB245" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28595,10 +28625,10 @@
         <v>2318</v>
       </c>
       <c r="Z246" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA246" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB246" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28671,10 +28701,10 @@
         <v>2318</v>
       </c>
       <c r="Z247" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA247" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB247" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28747,10 +28777,10 @@
         <v>2318</v>
       </c>
       <c r="Z248" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA248" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB248" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28823,10 +28853,10 @@
         <v>2318</v>
       </c>
       <c r="Z249" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA249" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB249" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28899,10 +28929,10 @@
         <v>2318</v>
       </c>
       <c r="Z250" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA250" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB250" s="67" t="str">
         <f t="shared" si="5"/>
@@ -28975,10 +29005,10 @@
         <v>2318</v>
       </c>
       <c r="Z251" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA251" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB251" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29051,10 +29081,10 @@
         <v>2318</v>
       </c>
       <c r="Z252" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA252" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB252" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29127,10 +29157,10 @@
         <v>2318</v>
       </c>
       <c r="Z253" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA253" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB253" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29203,10 +29233,10 @@
         <v>2318</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA254" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB254" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29279,10 +29309,10 @@
         <v>2318</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA255" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB255" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29355,10 +29385,10 @@
         <v>2318</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA256" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB256" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29431,10 +29461,10 @@
         <v>2318</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA257" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB257" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29511,10 +29541,10 @@
         <v>2318</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA258" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB258" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29587,10 +29617,10 @@
         <v>2318</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA259" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB259" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29669,10 +29699,10 @@
         <v>2318</v>
       </c>
       <c r="Z260" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA260" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB260" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29749,10 +29779,10 @@
         <v>2318</v>
       </c>
       <c r="Z261" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA261" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB261" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29829,10 +29859,10 @@
         <v>2318</v>
       </c>
       <c r="Z262" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA262" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB262" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29911,10 +29941,10 @@
         <v>2318</v>
       </c>
       <c r="Z263" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA263" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB263" s="67" t="str">
         <f t="shared" si="5"/>
@@ -29976,7 +30006,7 @@
         <v>2140</v>
       </c>
       <c r="U264" s="2" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="V264" s="2" t="s">
         <v>1554</v>
@@ -29991,10 +30021,10 @@
         <v>2318</v>
       </c>
       <c r="Z264" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA264" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB264" s="67" t="str">
         <f t="shared" si="5"/>
@@ -30054,7 +30084,7 @@
         <v>2141</v>
       </c>
       <c r="U265" s="2" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="V265" s="2" t="s">
         <v>1554</v>
@@ -30069,10 +30099,10 @@
         <v>2318</v>
       </c>
       <c r="Z265" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA265" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB265" s="67" t="str">
         <f t="shared" si="5"/>
@@ -30134,7 +30164,7 @@
         <v>2141</v>
       </c>
       <c r="U266" s="2" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="V266" s="2" t="s">
         <v>1554</v>
@@ -30149,10 +30179,10 @@
         <v>2318</v>
       </c>
       <c r="Z266" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA266" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB266" s="67" t="str">
         <f t="shared" si="5"/>
@@ -30225,10 +30255,10 @@
         <v>2318</v>
       </c>
       <c r="Z267" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA267" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB267" s="67" t="str">
         <f t="shared" si="5"/>
@@ -30301,10 +30331,10 @@
         <v>2318</v>
       </c>
       <c r="Z268" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA268" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB268" s="67" t="str">
         <f t="shared" si="5"/>
@@ -30377,10 +30407,10 @@
         <v>2318</v>
       </c>
       <c r="Z269" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA269" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB269" s="67" t="str">
         <f t="shared" ref="AB269:AB300" si="6">IF(LEN(TRIM(L269))=0,"",$L$1 &amp; " - " &amp; L269 &amp; "; ") &amp; IF(LEN(TRIM(M269))=0,"",$M$1 &amp; " - " &amp; M269 &amp; "; ") &amp; IF(LEN(TRIM(N269))=0,"",$N$1 &amp; " - " &amp; N269 &amp; "; ") &amp; IF(LEN(TRIM(O269))=0,"",$O$1 &amp; " - " &amp; O269 &amp; "; ") &amp; IF(LEN(TRIM(P269))=0,"",$P$1 &amp; " - " &amp; P269 &amp; "; ") &amp; IF(LEN(TRIM(Q269))=0,"",$Q$1 &amp; " - " &amp; Q269 &amp; "; ") &amp; IF(LEN(TRIM(R269))=0,"",$R$1 &amp; " - " &amp; R269 &amp; "; ")</f>
@@ -30455,10 +30485,10 @@
         <v>2318</v>
       </c>
       <c r="Z270" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA270" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB270" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30531,10 +30561,10 @@
         <v>2318</v>
       </c>
       <c r="Z271" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA271" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB271" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30607,7 +30637,7 @@
         <v>2316</v>
       </c>
       <c r="Z272" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB272" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30681,7 +30711,7 @@
         <v>2316</v>
       </c>
       <c r="Z273" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB273" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30751,7 +30781,7 @@
         <v>2316</v>
       </c>
       <c r="Z274" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB274" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30821,7 +30851,7 @@
         <v>2316</v>
       </c>
       <c r="Z275" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB275" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30891,10 +30921,10 @@
         <v>2318</v>
       </c>
       <c r="Z276" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA276" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB276" s="67" t="str">
         <f t="shared" si="6"/>
@@ -30964,10 +30994,10 @@
         <v>2318</v>
       </c>
       <c r="Z277" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA277" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB277" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31037,10 +31067,10 @@
         <v>2318</v>
       </c>
       <c r="Z278" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA278" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB278" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31110,10 +31140,10 @@
         <v>2318</v>
       </c>
       <c r="Z279" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA279" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB279" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31187,10 +31217,10 @@
         <v>2318</v>
       </c>
       <c r="Z280" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA280" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB280" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31260,10 +31290,10 @@
         <v>2318</v>
       </c>
       <c r="Z281" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA281" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB281" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31333,10 +31363,10 @@
         <v>2318</v>
       </c>
       <c r="Z282" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA282" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB282" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31406,10 +31436,10 @@
         <v>2318</v>
       </c>
       <c r="Z283" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA283" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB283" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31479,10 +31509,10 @@
         <v>2318</v>
       </c>
       <c r="Z284" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA284" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB284" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31552,10 +31582,10 @@
         <v>2318</v>
       </c>
       <c r="Z285" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA285" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB285" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31625,10 +31655,10 @@
         <v>2318</v>
       </c>
       <c r="Z286" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA286" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB286" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31698,10 +31728,10 @@
         <v>2318</v>
       </c>
       <c r="Z287" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA287" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB287" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31769,10 +31799,10 @@
         <v>2318</v>
       </c>
       <c r="Z288" s="125" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="AA288" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB288" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31840,10 +31870,10 @@
         <v>2318</v>
       </c>
       <c r="Z289" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA289" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB289" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31911,10 +31941,10 @@
         <v>2318</v>
       </c>
       <c r="Z290" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA290" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB290" s="67" t="str">
         <f t="shared" si="6"/>
@@ -31982,10 +32012,10 @@
         <v>2318</v>
       </c>
       <c r="Z291" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA291" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB291" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32053,10 +32083,10 @@
         <v>2318</v>
       </c>
       <c r="Z292" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA292" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB292" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32124,10 +32154,10 @@
         <v>2318</v>
       </c>
       <c r="Z293" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA293" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB293" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32195,10 +32225,10 @@
         <v>2318</v>
       </c>
       <c r="Z294" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA294" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB294" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32266,10 +32296,10 @@
         <v>2318</v>
       </c>
       <c r="Z295" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA295" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB295" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32337,10 +32367,10 @@
         <v>2318</v>
       </c>
       <c r="Z296" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA296" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB296" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32410,10 +32440,10 @@
         <v>2318</v>
       </c>
       <c r="Z297" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA297" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB297" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32483,10 +32513,10 @@
         <v>2318</v>
       </c>
       <c r="Z298" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA298" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB298" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32554,10 +32584,10 @@
         <v>2318</v>
       </c>
       <c r="Z299" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA299" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB299" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32625,10 +32655,10 @@
         <v>2318</v>
       </c>
       <c r="Z300" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA300" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB300" s="67" t="str">
         <f t="shared" si="6"/>
@@ -32696,10 +32726,10 @@
         <v>2318</v>
       </c>
       <c r="Z301" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA301" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB301" s="67" t="str">
         <f t="shared" ref="AB301:AB337" si="7">IF(LEN(TRIM(L301))=0,"",$L$1 &amp; " - " &amp; L301 &amp; "; ") &amp; IF(LEN(TRIM(M301))=0,"",$M$1 &amp; " - " &amp; M301 &amp; "; ") &amp; IF(LEN(TRIM(N301))=0,"",$N$1 &amp; " - " &amp; N301 &amp; "; ") &amp; IF(LEN(TRIM(O301))=0,"",$O$1 &amp; " - " &amp; O301 &amp; "; ") &amp; IF(LEN(TRIM(P301))=0,"",$P$1 &amp; " - " &amp; P301 &amp; "; ") &amp; IF(LEN(TRIM(Q301))=0,"",$Q$1 &amp; " - " &amp; Q301 &amp; "; ") &amp; IF(LEN(TRIM(R301))=0,"",$R$1 &amp; " - " &amp; R301 &amp; "; ")</f>
@@ -32767,10 +32797,10 @@
         <v>2318</v>
       </c>
       <c r="Z302" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA302" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB302" s="67" t="str">
         <f t="shared" si="7"/>
@@ -32838,10 +32868,10 @@
         <v>2318</v>
       </c>
       <c r="Z303" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA303" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB303" s="67" t="str">
         <f t="shared" si="7"/>
@@ -32909,10 +32939,10 @@
         <v>2318</v>
       </c>
       <c r="Z304" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA304" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB304" s="67" t="str">
         <f t="shared" si="7"/>
@@ -32980,10 +33010,10 @@
         <v>2318</v>
       </c>
       <c r="Z305" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA305" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB305" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33051,10 +33081,10 @@
         <v>2318</v>
       </c>
       <c r="Z306" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA306" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB306" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33122,10 +33152,10 @@
         <v>2318</v>
       </c>
       <c r="Z307" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA307" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB307" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33193,10 +33223,10 @@
         <v>2318</v>
       </c>
       <c r="Z308" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA308" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB308" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33264,10 +33294,10 @@
         <v>2318</v>
       </c>
       <c r="Z309" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA309" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB309" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33335,10 +33365,10 @@
         <v>2318</v>
       </c>
       <c r="Z310" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA310" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB310" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33406,10 +33436,10 @@
         <v>2318</v>
       </c>
       <c r="Z311" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA311" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB311" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33479,10 +33509,10 @@
         <v>2318</v>
       </c>
       <c r="Z312" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA312" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB312" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33552,10 +33582,10 @@
         <v>2318</v>
       </c>
       <c r="Z313" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA313" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB313" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33625,10 +33655,10 @@
         <v>2318</v>
       </c>
       <c r="Z314" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA314" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB314" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33698,10 +33728,10 @@
         <v>2318</v>
       </c>
       <c r="Z315" s="125" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="AA315" s="125" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="AB315" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33771,10 +33801,10 @@
         <v>2318</v>
       </c>
       <c r="Z316" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA316" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB316" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33844,10 +33874,10 @@
         <v>2318</v>
       </c>
       <c r="Z317" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA317" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB317" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33919,10 +33949,10 @@
         <v>2318</v>
       </c>
       <c r="Z318" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA318" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB318" s="67" t="str">
         <f t="shared" si="7"/>
@@ -33992,10 +34022,10 @@
         <v>2316</v>
       </c>
       <c r="Z319" s="125" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="AA319" s="125" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="AB319" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34063,10 +34093,10 @@
         <v>2316</v>
       </c>
       <c r="Z320" s="127" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="AA320" s="120" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="AB320" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34134,10 +34164,10 @@
         <v>2316</v>
       </c>
       <c r="Z321" s="120" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="AA321" s="120" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="AB321" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34203,10 +34233,10 @@
         <v>2316</v>
       </c>
       <c r="Z322" s="125" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="AA322" s="125" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="AB322" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34272,10 +34302,10 @@
         <v>2316</v>
       </c>
       <c r="Z323" s="125" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="AA323" s="125" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="AB323" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34343,10 +34373,10 @@
         <v>2316</v>
       </c>
       <c r="Z324" s="125" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="AA324" s="125" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="AB324" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34414,10 +34444,10 @@
         <v>2316</v>
       </c>
       <c r="Z325" s="125" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="AA325" s="125" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="AB325" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34485,10 +34515,10 @@
         <v>2316</v>
       </c>
       <c r="Z326" s="125" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="AA326" s="125" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="AB326" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34556,10 +34586,10 @@
         <v>2316</v>
       </c>
       <c r="Z327" s="125" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="AA327" s="125" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="AB327" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34627,10 +34657,10 @@
         <v>2316</v>
       </c>
       <c r="Z328" s="125" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="AA328" s="125" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="AB328" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34698,10 +34728,10 @@
         <v>2316</v>
       </c>
       <c r="Z329" s="125" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="AA329" s="125" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="AB329" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34769,10 +34799,10 @@
         <v>2316</v>
       </c>
       <c r="Z330" s="125" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="AA330" s="125" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="AB330" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34840,10 +34870,10 @@
         <v>2316</v>
       </c>
       <c r="Z331" s="125" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="AA331" s="125" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="AB331" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34911,10 +34941,10 @@
         <v>2316</v>
       </c>
       <c r="Z332" s="125" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="AA332" s="125" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="AB332" s="67" t="str">
         <f t="shared" si="7"/>
@@ -34984,10 +35014,10 @@
         <v>2316</v>
       </c>
       <c r="Z333" s="125" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="AA333" s="125" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="AB333" s="67" t="str">
         <f t="shared" si="7"/>
@@ -35057,10 +35087,10 @@
         <v>2316</v>
       </c>
       <c r="Z334" s="125" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="AA334" s="125" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="AB334" s="67" t="str">
         <f t="shared" si="7"/>
@@ -35130,10 +35160,10 @@
         <v>2316</v>
       </c>
       <c r="Z335" s="125" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="AA335" s="125" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="AB335" s="67" t="str">
         <f t="shared" si="7"/>
@@ -35203,10 +35233,10 @@
         <v>2316</v>
       </c>
       <c r="Z336" s="125" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="AA336" s="125" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="AB336" s="67" t="str">
         <f t="shared" si="7"/>
@@ -35274,10 +35304,10 @@
         <v>2316</v>
       </c>
       <c r="Z337" s="120" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="AA337" s="120" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="AB337" s="67" t="str">
         <f t="shared" si="7"/>
@@ -35339,7 +35369,7 @@
         <v>2316</v>
       </c>
       <c r="Z338" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB338" s="67"/>
     </row>
@@ -35398,7 +35428,7 @@
         <v>2319</v>
       </c>
       <c r="Z339" s="120" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="AB339" s="67"/>
     </row>
@@ -35665,10 +35695,10 @@
         <v>2316</v>
       </c>
       <c r="Z344" s="125" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="AA344" s="125" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="AB344" s="67" t="str">
         <f t="shared" ref="AB344:AB349" si="8">IF(LEN(TRIM(L344))=0,"",$L$1 &amp; " - " &amp; L344 &amp; "; ") &amp; IF(LEN(TRIM(M344))=0,"",$M$1 &amp; " - " &amp; M344 &amp; "; ") &amp; IF(LEN(TRIM(N344))=0,"",$N$1 &amp; " - " &amp; N344 &amp; "; ") &amp; IF(LEN(TRIM(O344))=0,"",$O$1 &amp; " - " &amp; O344 &amp; "; ") &amp; IF(LEN(TRIM(P344))=0,"",$P$1 &amp; " - " &amp; P344 &amp; "; ") &amp; IF(LEN(TRIM(Q344))=0,"",$Q$1 &amp; " - " &amp; Q344 &amp; "; ") &amp; IF(LEN(TRIM(R344))=0,"",$R$1 &amp; " - " &amp; R344 &amp; "; ")</f>
@@ -35748,7 +35778,7 @@
         <v>2316</v>
       </c>
       <c r="Z345" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB345" s="67" t="str">
         <f t="shared" si="8"/>
@@ -35828,7 +35858,7 @@
         <v>2316</v>
       </c>
       <c r="Z346" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB346" s="67" t="str">
         <f t="shared" si="8"/>
@@ -35908,7 +35938,7 @@
         <v>2316</v>
       </c>
       <c r="Z347" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB347" s="67" t="str">
         <f t="shared" si="8"/>
@@ -35988,7 +36018,7 @@
         <v>2316</v>
       </c>
       <c r="Z348" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB348" s="67" t="str">
         <f t="shared" si="8"/>
@@ -36070,7 +36100,7 @@
         <v>2316</v>
       </c>
       <c r="Z349" s="120" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="AB349" s="67" t="str">
         <f t="shared" si="8"/>
@@ -36145,10 +36175,10 @@
         <v>2316</v>
       </c>
       <c r="Z350" s="125" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="AA350" s="125" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="AB350" s="2"/>
     </row>
@@ -36212,7 +36242,7 @@
         <v>2316</v>
       </c>
       <c r="Z351" s="120" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="AB351" s="2"/>
     </row>
@@ -36274,10 +36304,10 @@
         <v>2316</v>
       </c>
       <c r="Z352" s="125" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="AA352" s="125" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="AB352" s="2"/>
     </row>
@@ -36341,10 +36371,10 @@
         <v>2316</v>
       </c>
       <c r="Z353" s="125" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="AA353" s="125" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="AB353" s="2"/>
     </row>
@@ -36408,10 +36438,10 @@
         <v>2316</v>
       </c>
       <c r="Z354" s="125" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="AA354" s="125" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="AB354" s="2"/>
     </row>
@@ -36475,10 +36505,10 @@
         <v>2316</v>
       </c>
       <c r="Z355" s="125" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="AA355" s="125" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="AB355" s="67" t="str">
         <f t="shared" ref="AB355:AB386" si="9">IF(LEN(TRIM(L355))=0,"",$L$1 &amp; " - " &amp; L355 &amp; "; ") &amp; IF(LEN(TRIM(M355))=0,"",$M$1 &amp; " - " &amp; M355 &amp; "; ") &amp; IF(LEN(TRIM(N355))=0,"",$N$1 &amp; " - " &amp; N355 &amp; "; ") &amp; IF(LEN(TRIM(O355))=0,"",$O$1 &amp; " - " &amp; O355 &amp; "; ") &amp; IF(LEN(TRIM(P355))=0,"",$P$1 &amp; " - " &amp; P355 &amp; "; ") &amp; IF(LEN(TRIM(Q355))=0,"",$Q$1 &amp; " - " &amp; Q355 &amp; "; ") &amp; IF(LEN(TRIM(R355))=0,"",$R$1 &amp; " - " &amp; R355 &amp; "; ")</f>
@@ -36535,10 +36565,10 @@
         <v>2318</v>
       </c>
       <c r="Z356" s="125" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="AA356" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB356" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36603,10 +36633,10 @@
         <v>2318</v>
       </c>
       <c r="Z357" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA357" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB357" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36671,10 +36701,10 @@
         <v>2318</v>
       </c>
       <c r="Z358" s="125" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="AA358" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB358" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36731,10 +36761,10 @@
         <v>2318</v>
       </c>
       <c r="Z359" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA359" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB359" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36791,10 +36821,10 @@
         <v>2318</v>
       </c>
       <c r="Z360" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA360" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB360" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36851,10 +36881,10 @@
         <v>2318</v>
       </c>
       <c r="Z361" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA361" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB361" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36911,10 +36941,10 @@
         <v>2318</v>
       </c>
       <c r="Z362" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA362" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB362" s="67" t="str">
         <f t="shared" si="9"/>
@@ -36971,10 +37001,10 @@
         <v>2318</v>
       </c>
       <c r="Z363" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA363" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB363" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37031,10 +37061,10 @@
         <v>2318</v>
       </c>
       <c r="Z364" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA364" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB364" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37091,10 +37121,10 @@
         <v>2318</v>
       </c>
       <c r="Z365" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA365" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB365" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37151,10 +37181,10 @@
         <v>2318</v>
       </c>
       <c r="Z366" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA366" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB366" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37211,10 +37241,10 @@
         <v>2318</v>
       </c>
       <c r="Z367" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA367" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB367" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37271,10 +37301,10 @@
         <v>2318</v>
       </c>
       <c r="Z368" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA368" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB368" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37331,10 +37361,10 @@
         <v>2318</v>
       </c>
       <c r="Z369" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA369" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB369" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37391,10 +37421,10 @@
         <v>2318</v>
       </c>
       <c r="Z370" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA370" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB370" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37451,10 +37481,10 @@
         <v>2318</v>
       </c>
       <c r="Z371" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA371" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB371" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37511,10 +37541,10 @@
         <v>2318</v>
       </c>
       <c r="Z372" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA372" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB372" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37571,10 +37601,10 @@
         <v>2318</v>
       </c>
       <c r="Z373" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA373" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB373" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37631,10 +37661,10 @@
         <v>2318</v>
       </c>
       <c r="Z374" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA374" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB374" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37691,10 +37721,10 @@
         <v>2318</v>
       </c>
       <c r="Z375" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA375" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB375" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37751,10 +37781,10 @@
         <v>2318</v>
       </c>
       <c r="Z376" s="125" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="AA376" s="125" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="AB376" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37811,10 +37841,10 @@
         <v>2318</v>
       </c>
       <c r="Z377" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA377" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB377" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37871,10 +37901,10 @@
         <v>2318</v>
       </c>
       <c r="Z378" s="125" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="AA378" s="125" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="AB378" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37931,10 +37961,10 @@
         <v>2318</v>
       </c>
       <c r="Z379" s="125" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="AA379" s="125" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="AB379" s="67" t="str">
         <f t="shared" si="9"/>
@@ -37991,10 +38021,10 @@
         <v>2318</v>
       </c>
       <c r="Z380" s="125" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="AA380" s="125" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="AB380" s="67" t="str">
         <f t="shared" si="9"/>
@@ -38051,10 +38081,10 @@
         <v>2318</v>
       </c>
       <c r="Z381" s="125" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="AA381" s="125" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="AB381" s="67" t="str">
         <f t="shared" si="9"/>
@@ -38111,10 +38141,10 @@
         <v>2318</v>
       </c>
       <c r="Z382" s="125" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="AA382" s="125" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="AB382" s="67" t="str">
         <f t="shared" si="9"/>
@@ -38171,10 +38201,10 @@
         <v>2318</v>
       </c>
       <c r="Z383" s="125" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="AA383" s="125" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="AB383" s="67" t="str">
         <f t="shared" si="9"/>
@@ -38241,10 +38271,10 @@
         <v>2318</v>
       </c>
       <c r="Z384" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AA384" s="2" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="AB384" s="83" t="str">
         <f t="shared" si="9"/>
@@ -43050,8 +43080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43214,7 +43244,7 @@
         <v>2318</v>
       </c>
       <c r="Z2" s="2" t="str">
-        <f t="shared" ref="Z2:Z65" si="0">IF(LEN(TRIM(L2))=0,"",$L$1 &amp; " - " &amp; L2 &amp; "; ") &amp; IF(LEN(TRIM(M2))=0,"",$M$1 &amp; " - " &amp; M2 &amp; "; ") &amp; IF(LEN(TRIM(N2))=0,"",$N$1 &amp; " - " &amp; N2 &amp; "; ") &amp; IF(LEN(TRIM(O2))=0,"",$O$1 &amp; " - " &amp; O2 &amp; "; ") &amp; IF(LEN(TRIM(P2))=0,"",$P$1 &amp; " - " &amp; P2 &amp; "; ") &amp; IF(LEN(TRIM(Q2))=0,"",$Q$1 &amp; " - " &amp; Q2 &amp; "; ") &amp; IF(LEN(TRIM(R2))=0,"",$R$1 &amp; " - " &amp; R2 &amp; "; ")</f>
+        <f>IF(LEN(TRIM(K2))=0,"",$K$1 &amp; " - " &amp; K2 &amp; "; ") &amp; IF(LEN(TRIM(L2))=0,"",$L$1 &amp; " - " &amp; L2 &amp; "; ") &amp; IF(LEN(TRIM(M2))=0,"",$M$1 &amp; " - " &amp; M2 &amp; "; ") &amp; IF(LEN(TRIM(N2))=0,"",$N$1 &amp; " - " &amp; N2 &amp; "; ") &amp; IF(LEN(TRIM(O2))=0,"",$O$1 &amp; " - " &amp; O2 &amp; "; ") &amp; IF(LEN(TRIM(P2))=0,"",$P$1 &amp; " - " &amp; P2 &amp; "; ") &amp; IF(LEN(TRIM(Q2))=0,"",$Q$1 &amp; " - " &amp; Q2 &amp; "; ") &amp; IF(LEN(TRIM(R2))=0,"",$R$1 &amp; " - " &amp; R2 &amp; "; ")</f>
         <v xml:space="preserve">Clean Air - x; </v>
       </c>
     </row>
@@ -43277,7 +43307,7 @@
         <v>2318</v>
       </c>
       <c r="Z3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Z3:Z66" si="0">IF(LEN(TRIM(K3))=0,"",$K$1 &amp; " - " &amp; K3 &amp; "; ") &amp; IF(LEN(TRIM(L3))=0,"",$L$1 &amp; " - " &amp; L3 &amp; "; ") &amp; IF(LEN(TRIM(M3))=0,"",$M$1 &amp; " - " &amp; M3 &amp; "; ") &amp; IF(LEN(TRIM(N3))=0,"",$N$1 &amp; " - " &amp; N3 &amp; "; ") &amp; IF(LEN(TRIM(O3))=0,"",$O$1 &amp; " - " &amp; O3 &amp; "; ") &amp; IF(LEN(TRIM(P3))=0,"",$P$1 &amp; " - " &amp; P3 &amp; "; ") &amp; IF(LEN(TRIM(Q3))=0,"",$Q$1 &amp; " - " &amp; Q3 &amp; "; ") &amp; IF(LEN(TRIM(R3))=0,"",$R$1 &amp; " - " &amp; R3 &amp; "; ")</f>
         <v xml:space="preserve">Clean Air - x; </v>
       </c>
     </row>
@@ -43319,7 +43349,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>1478</v>
+        <v>1656</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -43327,7 +43357,7 @@
         <v>2019</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>1595</v>
+        <v>2450</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>1478</v>
@@ -43343,7 +43373,7 @@
       </c>
       <c r="Z4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Food, Fuel, and Materials - Land Cover: Type; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - x; </v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44361,7 +44391,7 @@
         <v>2028</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>2346</v>
+        <v>2451</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>1478</v>
@@ -44377,7 +44407,7 @@
       </c>
       <c r="Z20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Natural Hazard Mitigation - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Natural Hazard Mitigation - x; </v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44564,7 +44594,7 @@
         <v>2025</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>2347</v>
+        <v>2452</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>1478</v>
@@ -44580,7 +44610,7 @@
       </c>
       <c r="Z23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44633,7 +44663,7 @@
         <v>2030</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>1482</v>
@@ -44649,7 +44679,7 @@
       </c>
       <c r="Z24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44702,7 +44732,7 @@
         <v>2030</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>1482</v>
@@ -44718,7 +44748,7 @@
       </c>
       <c r="Z25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44771,7 +44801,7 @@
         <v>2031</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>1482</v>
@@ -44787,7 +44817,7 @@
       </c>
       <c r="Z26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -44840,7 +44870,7 @@
         <v>2031</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>1482</v>
@@ -44856,7 +44886,7 @@
       </c>
       <c r="Z27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -45752,7 +45782,7 @@
         <v>2039</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>2347</v>
+        <v>2452</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>1478</v>
@@ -45768,7 +45798,7 @@
       </c>
       <c r="Z41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -45821,7 +45851,7 @@
         <v>2040</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>1482</v>
@@ -45837,7 +45867,7 @@
       </c>
       <c r="Z42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -45890,7 +45920,7 @@
         <v>2040</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>1482</v>
@@ -45906,7 +45936,7 @@
       </c>
       <c r="Z43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -45959,7 +45989,7 @@
         <v>2041</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>1482</v>
@@ -45975,7 +46005,7 @@
       </c>
       <c r="Z44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -46028,7 +46058,7 @@
         <v>2042</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U45" s="2" t="s">
         <v>1482</v>
@@ -46044,7 +46074,7 @@
       </c>
       <c r="Z45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -46099,7 +46129,7 @@
         <v>2043</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>2351</v>
+        <v>2454</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>1478</v>
@@ -46115,7 +46145,7 @@
       </c>
       <c r="Z46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -47380,7 +47410,7 @@
         <v>2318</v>
       </c>
       <c r="Z66" s="2" t="str">
-        <f t="shared" ref="Z66:Z129" si="1">IF(LEN(TRIM(L66))=0,"",$L$1 &amp; " - " &amp; L66 &amp; "; ") &amp; IF(LEN(TRIM(M66))=0,"",$M$1 &amp; " - " &amp; M66 &amp; "; ") &amp; IF(LEN(TRIM(N66))=0,"",$N$1 &amp; " - " &amp; N66 &amp; "; ") &amp; IF(LEN(TRIM(O66))=0,"",$O$1 &amp; " - " &amp; O66 &amp; "; ") &amp; IF(LEN(TRIM(P66))=0,"",$P$1 &amp; " - " &amp; P66 &amp; "; ") &amp; IF(LEN(TRIM(Q66))=0,"",$Q$1 &amp; " - " &amp; Q66 &amp; "; ") &amp; IF(LEN(TRIM(R66))=0,"",$R$1 &amp; " - " &amp; R66 &amp; "; ")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
@@ -47443,7 +47473,7 @@
         <v>2318</v>
       </c>
       <c r="Z67" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Z67:Z130" si="1">IF(LEN(TRIM(K67))=0,"",$K$1 &amp; " - " &amp; K67 &amp; "; ") &amp; IF(LEN(TRIM(L67))=0,"",$L$1 &amp; " - " &amp; L67 &amp; "; ") &amp; IF(LEN(TRIM(M67))=0,"",$M$1 &amp; " - " &amp; M67 &amp; "; ") &amp; IF(LEN(TRIM(N67))=0,"",$N$1 &amp; " - " &amp; N67 &amp; "; ") &amp; IF(LEN(TRIM(O67))=0,"",$O$1 &amp; " - " &amp; O67 &amp; "; ") &amp; IF(LEN(TRIM(P67))=0,"",$P$1 &amp; " - " &amp; P67 &amp; "; ") &amp; IF(LEN(TRIM(Q67))=0,"",$Q$1 &amp; " - " &amp; Q67 &amp; "; ") &amp; IF(LEN(TRIM(R67))=0,"",$R$1 &amp; " - " &amp; R67 &amp; "; ")</f>
         <v xml:space="preserve">Clean Air - x; </v>
       </c>
     </row>
@@ -47810,7 +47840,7 @@
         <v>2053</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="U73" s="2" t="s">
         <v>1484</v>
@@ -47873,7 +47903,7 @@
         <v>2053</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="U74" s="2" t="s">
         <v>1484</v>
@@ -47942,7 +47972,7 @@
         <v>2031</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>1482</v>
@@ -47958,7 +47988,7 @@
       </c>
       <c r="Z75" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48011,7 +48041,7 @@
         <v>2031</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>1482</v>
@@ -48027,7 +48057,7 @@
       </c>
       <c r="Z76" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48082,7 +48112,7 @@
         <v>2054</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>2353</v>
+        <v>2455</v>
       </c>
       <c r="U77" s="2" t="s">
         <v>1478</v>
@@ -48098,7 +48128,7 @@
       </c>
       <c r="Z77" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48271,7 +48301,7 @@
         <v>2056</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>1484</v>
@@ -48334,7 +48364,7 @@
         <v>2056</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="U81" s="2" t="s">
         <v>1484</v>
@@ -48727,7 +48757,7 @@
         <v>2058</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>2354</v>
+        <v>2456</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>1478</v>
@@ -48744,7 +48774,7 @@
       </c>
       <c r="Z87" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48794,7 +48824,7 @@
         <v>2059</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>1485</v>
@@ -48811,7 +48841,7 @@
       </c>
       <c r="Z88" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -48930,7 +48960,7 @@
         <v>2062</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>1482</v>
@@ -48947,7 +48977,7 @@
       </c>
       <c r="Z90" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49000,7 +49030,7 @@
         <v>2062</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>1482</v>
@@ -49017,7 +49047,7 @@
       </c>
       <c r="Z91" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49070,7 +49100,7 @@
         <v>2063</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>1482</v>
@@ -49087,7 +49117,7 @@
       </c>
       <c r="Z92" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49140,7 +49170,7 @@
         <v>2063</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>2348</v>
+        <v>2453</v>
       </c>
       <c r="U93" s="2" t="s">
         <v>1482</v>
@@ -49157,7 +49187,7 @@
       </c>
       <c r="Z93" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49278,7 +49308,7 @@
         <v>2065</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>2347</v>
+        <v>2452</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>1483</v>
@@ -49295,7 +49325,7 @@
       </c>
       <c r="Z95" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49418,7 +49448,7 @@
         <v>2067</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>2347</v>
+        <v>2452</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>1478</v>
@@ -49435,7 +49465,7 @@
       </c>
       <c r="Z97" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49492,7 +49522,7 @@
         <v>2032</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>2347</v>
+        <v>2452</v>
       </c>
       <c r="U98" s="2" t="s">
         <v>1483</v>
@@ -49509,7 +49539,7 @@
       </c>
       <c r="Z98" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49560,7 +49590,7 @@
         <v>2078</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>2355</v>
+        <v>2458</v>
       </c>
       <c r="U99" s="2" t="s">
         <v>1492</v>
@@ -49576,7 +49606,7 @@
       </c>
       <c r="Z99" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49625,7 +49655,7 @@
         <v>2079</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>2356</v>
+        <v>2459</v>
       </c>
       <c r="U100" s="2" t="s">
         <v>1486</v>
@@ -49644,7 +49674,7 @@
       </c>
       <c r="Z100" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Food, Fuel, and Materials - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - x; </v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49693,7 +49723,7 @@
         <v>2080</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="U101" s="74" t="s">
         <v>1480</v>
@@ -49763,7 +49793,7 @@
         <v>2081</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="U102" s="74" t="s">
         <v>1487</v>
@@ -49782,7 +49812,7 @@
       </c>
       <c r="Z102" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49833,7 +49863,7 @@
         <v>2081</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="U103" s="74" t="s">
         <v>1487</v>
@@ -49852,7 +49882,7 @@
       </c>
       <c r="Z103" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49903,7 +49933,7 @@
         <v>2081</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="U104" s="74" t="s">
         <v>1487</v>
@@ -49922,7 +49952,7 @@
       </c>
       <c r="Z104" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -49973,7 +50003,7 @@
         <v>2081</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="U105" s="74" t="s">
         <v>1487</v>
@@ -49992,7 +50022,7 @@
       </c>
       <c r="Z105" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -50043,7 +50073,7 @@
         <v>2082</v>
       </c>
       <c r="T106" s="2" t="s">
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="U106" s="74" t="s">
         <v>1488</v>
@@ -50062,7 +50092,7 @@
       </c>
       <c r="Z106" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -50113,7 +50143,7 @@
         <v>2082</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>2358</v>
+        <v>2460</v>
       </c>
       <c r="U107" s="74" t="s">
         <v>1488</v>
@@ -50132,7 +50162,7 @@
       </c>
       <c r="Z107" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; </v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -50179,7 +50209,7 @@
         <v>2083</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>1489</v>
@@ -50245,7 +50275,7 @@
         <v>2083</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U109" s="2" t="s">
         <v>1489</v>
@@ -50311,7 +50341,7 @@
         <v>2083</v>
       </c>
       <c r="T110" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U110" s="2" t="s">
         <v>1489</v>
@@ -50387,7 +50417,7 @@
         <v>2084</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U111" s="2" t="s">
         <v>2280</v>
@@ -50585,7 +50615,7 @@
         <v>2053</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="U114" s="2" t="s">
         <v>1484</v>
@@ -50651,7 +50681,7 @@
         <v>2053</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="U115" s="2" t="s">
         <v>1484</v>
@@ -50717,7 +50747,7 @@
         <v>2087</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U116" s="2" t="s">
         <v>1486</v>
@@ -50983,7 +51013,7 @@
         <v>2087</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U120" s="2" t="s">
         <v>1486</v>
@@ -51049,7 +51079,7 @@
         <v>2087</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U121" s="2" t="s">
         <v>1486</v>
@@ -51115,7 +51145,7 @@
         <v>2087</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U122" s="2" t="s">
         <v>1486</v>
@@ -51181,7 +51211,7 @@
         <v>2087</v>
       </c>
       <c r="T123" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U123" s="2" t="s">
         <v>1486</v>
@@ -51247,7 +51277,7 @@
         <v>2087</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U124" s="2" t="s">
         <v>1486</v>
@@ -51313,7 +51343,7 @@
         <v>2087</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>1486</v>
@@ -51449,7 +51479,7 @@
         <v>2091</v>
       </c>
       <c r="T127" s="2" t="s">
-        <v>2355</v>
+        <v>2458</v>
       </c>
       <c r="U127" s="74" t="s">
         <v>1487</v>
@@ -51468,7 +51498,7 @@
       </c>
       <c r="Z127" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51515,7 +51545,7 @@
         <v>2092</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U128" s="2" t="s">
         <v>1490</v>
@@ -51534,7 +51564,7 @@
       </c>
       <c r="Z128" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51583,7 +51613,7 @@
         <v>2092</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>2356</v>
+        <v>2459</v>
       </c>
       <c r="U129" s="2" t="s">
         <v>1490</v>
@@ -51602,7 +51632,7 @@
       </c>
       <c r="Z129" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Food, Fuel, and Materials - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - x; </v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51651,7 +51681,7 @@
         <v>2093</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>1491</v>
@@ -51669,8 +51699,8 @@
         <v>2318</v>
       </c>
       <c r="Z130" s="2" t="str">
-        <f t="shared" ref="Z130:Z193" si="2">IF(LEN(TRIM(L130))=0,"",$L$1 &amp; " - " &amp; L130 &amp; "; ") &amp; IF(LEN(TRIM(M130))=0,"",$M$1 &amp; " - " &amp; M130 &amp; "; ") &amp; IF(LEN(TRIM(N130))=0,"",$N$1 &amp; " - " &amp; N130 &amp; "; ") &amp; IF(LEN(TRIM(O130))=0,"",$O$1 &amp; " - " &amp; O130 &amp; "; ") &amp; IF(LEN(TRIM(P130))=0,"",$P$1 &amp; " - " &amp; P130 &amp; "; ") &amp; IF(LEN(TRIM(Q130))=0,"",$Q$1 &amp; " - " &amp; Q130 &amp; "; ") &amp; IF(LEN(TRIM(R130))=0,"",$R$1 &amp; " - " &amp; R130 &amp; "; ")</f>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51719,7 +51749,7 @@
         <v>2092</v>
       </c>
       <c r="T131" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U131" s="2" t="s">
         <v>1490</v>
@@ -51737,8 +51767,8 @@
         <v>2318</v>
       </c>
       <c r="Z131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <f t="shared" ref="Z131:Z194" si="2">IF(LEN(TRIM(K131))=0,"",$K$1 &amp; " - " &amp; K131 &amp; "; ") &amp; IF(LEN(TRIM(L131))=0,"",$L$1 &amp; " - " &amp; L131 &amp; "; ") &amp; IF(LEN(TRIM(M131))=0,"",$M$1 &amp; " - " &amp; M131 &amp; "; ") &amp; IF(LEN(TRIM(N131))=0,"",$N$1 &amp; " - " &amp; N131 &amp; "; ") &amp; IF(LEN(TRIM(O131))=0,"",$O$1 &amp; " - " &amp; O131 &amp; "; ") &amp; IF(LEN(TRIM(P131))=0,"",$P$1 &amp; " - " &amp; P131 &amp; "; ") &amp; IF(LEN(TRIM(Q131))=0,"",$Q$1 &amp; " - " &amp; Q131 &amp; "; ") &amp; IF(LEN(TRIM(R131))=0,"",$R$1 &amp; " - " &amp; R131 &amp; "; ")</f>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51787,7 +51817,7 @@
         <v>2093</v>
       </c>
       <c r="T132" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U132" s="2" t="s">
         <v>1491</v>
@@ -51806,7 +51836,7 @@
       </c>
       <c r="Z132" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51855,7 +51885,7 @@
         <v>2094</v>
       </c>
       <c r="T133" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U133" s="2" t="s">
         <v>1485</v>
@@ -51874,7 +51904,7 @@
       </c>
       <c r="Z133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51921,7 +51951,7 @@
         <v>2092</v>
       </c>
       <c r="T134" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U134" s="2" t="s">
         <v>1490</v>
@@ -51940,7 +51970,7 @@
       </c>
       <c r="Z134" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51989,7 +52019,7 @@
         <v>2095</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>1554</v>
@@ -52008,7 +52038,7 @@
       </c>
       <c r="Z135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52057,7 +52087,7 @@
         <v>2096</v>
       </c>
       <c r="T136" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U136" s="2" t="s">
         <v>1554</v>
@@ -52076,7 +52106,7 @@
       </c>
       <c r="Z136" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52125,7 +52155,7 @@
         <v>2096</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U137" s="2" t="s">
         <v>1554</v>
@@ -52144,7 +52174,7 @@
       </c>
       <c r="Z137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52193,7 +52223,7 @@
         <v>2096</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U138" s="2" t="s">
         <v>1554</v>
@@ -52212,7 +52242,7 @@
       </c>
       <c r="Z138" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52261,7 +52291,7 @@
         <v>2096</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U139" s="2" t="s">
         <v>1554</v>
@@ -52280,7 +52310,7 @@
       </c>
       <c r="Z139" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52327,7 +52357,7 @@
         <v>2092</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U140" s="2" t="s">
         <v>1490</v>
@@ -52346,7 +52376,7 @@
       </c>
       <c r="Z140" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52395,7 +52425,7 @@
         <v>2093</v>
       </c>
       <c r="T141" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>1491</v>
@@ -52414,7 +52444,7 @@
       </c>
       <c r="Z141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52463,7 +52493,7 @@
         <v>2093</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U142" s="2" t="s">
         <v>1491</v>
@@ -52482,7 +52512,7 @@
       </c>
       <c r="Z142" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52531,7 +52561,7 @@
         <v>2092</v>
       </c>
       <c r="T143" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U143" s="2" t="s">
         <v>1490</v>
@@ -52550,7 +52580,7 @@
       </c>
       <c r="Z143" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52599,7 +52629,7 @@
         <v>2093</v>
       </c>
       <c r="T144" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U144" s="2" t="s">
         <v>1491</v>
@@ -52618,7 +52648,7 @@
       </c>
       <c r="Z144" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52665,7 +52695,7 @@
         <v>2092</v>
       </c>
       <c r="T145" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U145" s="2" t="s">
         <v>1490</v>
@@ -52684,7 +52714,7 @@
       </c>
       <c r="Z145" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52733,7 +52763,7 @@
         <v>2092</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>2356</v>
+        <v>2459</v>
       </c>
       <c r="U146" s="2" t="s">
         <v>1490</v>
@@ -52752,7 +52782,7 @@
       </c>
       <c r="Z146" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Food, Fuel, and Materials - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - x; </v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52801,7 +52831,7 @@
         <v>2093</v>
       </c>
       <c r="T147" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U147" s="2" t="s">
         <v>1491</v>
@@ -52820,7 +52850,7 @@
       </c>
       <c r="Z147" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52869,7 +52899,7 @@
         <v>2092</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U148" s="2" t="s">
         <v>1490</v>
@@ -52888,7 +52918,7 @@
       </c>
       <c r="Z148" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -52937,7 +52967,7 @@
         <v>2093</v>
       </c>
       <c r="T149" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U149" s="2" t="s">
         <v>1491</v>
@@ -52956,7 +52986,7 @@
       </c>
       <c r="Z149" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="150" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53005,7 +53035,7 @@
         <v>2094</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U150" s="2" t="s">
         <v>1485</v>
@@ -53024,7 +53054,7 @@
       </c>
       <c r="Z150" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53071,7 +53101,7 @@
         <v>2092</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>1490</v>
@@ -53090,7 +53120,7 @@
       </c>
       <c r="Z151" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53139,7 +53169,7 @@
         <v>2096</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U152" s="2" t="s">
         <v>1554</v>
@@ -53158,7 +53188,7 @@
       </c>
       <c r="Z152" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53207,7 +53237,7 @@
         <v>2096</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>1554</v>
@@ -53226,7 +53256,7 @@
       </c>
       <c r="Z153" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53275,7 +53305,7 @@
         <v>2096</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>1554</v>
@@ -53294,7 +53324,7 @@
       </c>
       <c r="Z154" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53343,7 +53373,7 @@
         <v>2096</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U155" s="2" t="s">
         <v>1554</v>
@@ -53362,7 +53392,7 @@
       </c>
       <c r="Z155" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53411,7 +53441,7 @@
         <v>2096</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U156" s="2" t="s">
         <v>1554</v>
@@ -53430,7 +53460,7 @@
       </c>
       <c r="Z156" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53477,7 +53507,7 @@
         <v>2092</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U157" s="2" t="s">
         <v>1490</v>
@@ -53496,7 +53526,7 @@
       </c>
       <c r="Z157" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="158" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53545,7 +53575,7 @@
         <v>2093</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U158" s="2" t="s">
         <v>1491</v>
@@ -53564,7 +53594,7 @@
       </c>
       <c r="Z158" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53613,7 +53643,7 @@
         <v>2093</v>
       </c>
       <c r="T159" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U159" s="2" t="s">
         <v>1491</v>
@@ -53632,7 +53662,7 @@
       </c>
       <c r="Z159" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="160" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53681,7 +53711,7 @@
         <v>2092</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U160" s="2" t="s">
         <v>1490</v>
@@ -53700,7 +53730,7 @@
       </c>
       <c r="Z160" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="161" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53749,7 +53779,7 @@
         <v>2093</v>
       </c>
       <c r="T161" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U161" s="2" t="s">
         <v>1491</v>
@@ -53768,7 +53798,7 @@
       </c>
       <c r="Z161" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53949,7 +53979,7 @@
         <v>2099</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U164" s="2" t="s">
         <v>1490</v>
@@ -53968,7 +53998,7 @@
       </c>
       <c r="Z164" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54017,7 +54047,7 @@
         <v>2099</v>
       </c>
       <c r="T165" s="2" t="s">
-        <v>2356</v>
+        <v>2459</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>1490</v>
@@ -54036,7 +54066,7 @@
       </c>
       <c r="Z165" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Food, Fuel, and Materials - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Food, Fuel, and Materials - x; </v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54085,7 +54115,7 @@
         <v>2100</v>
       </c>
       <c r="T166" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U166" s="2" t="s">
         <v>1491</v>
@@ -54104,7 +54134,7 @@
       </c>
       <c r="Z166" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54153,7 +54183,7 @@
         <v>2099</v>
       </c>
       <c r="T167" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U167" s="2" t="s">
         <v>1490</v>
@@ -54172,7 +54202,7 @@
       </c>
       <c r="Z167" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54221,7 +54251,7 @@
         <v>2100</v>
       </c>
       <c r="T168" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U168" s="2" t="s">
         <v>1491</v>
@@ -54240,7 +54270,7 @@
       </c>
       <c r="Z168" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54289,7 +54319,7 @@
         <v>2094</v>
       </c>
       <c r="T169" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U169" s="2" t="s">
         <v>1485</v>
@@ -54308,7 +54338,7 @@
       </c>
       <c r="Z169" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54355,7 +54385,7 @@
         <v>2099</v>
       </c>
       <c r="T170" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U170" s="2" t="s">
         <v>1490</v>
@@ -54374,7 +54404,7 @@
       </c>
       <c r="Z170" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54423,7 +54453,7 @@
         <v>2095</v>
       </c>
       <c r="T171" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U171" s="2" t="s">
         <v>1554</v>
@@ -54442,7 +54472,7 @@
       </c>
       <c r="Z171" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54491,7 +54521,7 @@
         <v>2095</v>
       </c>
       <c r="T172" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U172" s="2" t="s">
         <v>1554</v>
@@ -54510,7 +54540,7 @@
       </c>
       <c r="Z172" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54559,7 +54589,7 @@
         <v>2095</v>
       </c>
       <c r="T173" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U173" s="2" t="s">
         <v>1554</v>
@@ -54578,7 +54608,7 @@
       </c>
       <c r="Z173" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54627,7 +54657,7 @@
         <v>2095</v>
       </c>
       <c r="T174" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U174" s="2" t="s">
         <v>1554</v>
@@ -54646,7 +54676,7 @@
       </c>
       <c r="Z174" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54695,7 +54725,7 @@
         <v>2095</v>
       </c>
       <c r="T175" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U175" s="2" t="s">
         <v>1554</v>
@@ -54714,7 +54744,7 @@
       </c>
       <c r="Z175" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54761,7 +54791,7 @@
         <v>2099</v>
       </c>
       <c r="T176" s="2" t="s">
-        <v>177</v>
+        <v>2461</v>
       </c>
       <c r="U176" s="2" t="s">
         <v>1490</v>
@@ -54780,7 +54810,7 @@
       </c>
       <c r="Z176" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Biodiversity Conservation - x; </v>
       </c>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54829,7 +54859,7 @@
         <v>2100</v>
       </c>
       <c r="T177" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U177" s="2" t="s">
         <v>1491</v>
@@ -54848,7 +54878,7 @@
       </c>
       <c r="Z177" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54897,7 +54927,7 @@
         <v>2100</v>
       </c>
       <c r="T178" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U178" s="2" t="s">
         <v>1491</v>
@@ -54916,7 +54946,7 @@
       </c>
       <c r="Z178" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="179" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -54965,7 +54995,7 @@
         <v>2099</v>
       </c>
       <c r="T179" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U179" s="2" t="s">
         <v>1490</v>
@@ -54984,7 +55014,7 @@
       </c>
       <c r="Z179" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55033,7 +55063,7 @@
         <v>2100</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U180" s="2" t="s">
         <v>1491</v>
@@ -55052,7 +55082,7 @@
       </c>
       <c r="Z180" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="181" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55103,7 +55133,7 @@
         <v>2101</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>2355</v>
+        <v>2458</v>
       </c>
       <c r="U181" s="2" t="s">
         <v>1554</v>
@@ -55122,7 +55152,7 @@
       </c>
       <c r="Z181" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="182" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55173,7 +55203,7 @@
         <v>2102</v>
       </c>
       <c r="T182" s="2" t="s">
-        <v>2355</v>
+        <v>2458</v>
       </c>
       <c r="U182" s="2" t="s">
         <v>1554</v>
@@ -55192,7 +55222,7 @@
       </c>
       <c r="Z182" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="183" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55241,7 +55271,7 @@
         <v>2103</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U183" s="2" t="s">
         <v>1554</v>
@@ -55260,7 +55290,7 @@
       </c>
       <c r="Z183" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="184" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55309,7 +55339,7 @@
         <v>2104</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U184" s="2" t="s">
         <v>1554</v>
@@ -55328,7 +55358,7 @@
       </c>
       <c r="Z184" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="185" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55377,7 +55407,7 @@
         <v>2103</v>
       </c>
       <c r="T185" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U185" s="2" t="s">
         <v>1554</v>
@@ -55396,7 +55426,7 @@
       </c>
       <c r="Z185" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55445,7 +55475,7 @@
         <v>2104</v>
       </c>
       <c r="T186" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U186" s="2" t="s">
         <v>1554</v>
@@ -55464,7 +55494,7 @@
       </c>
       <c r="Z186" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55511,7 +55541,7 @@
         <v>2087</v>
       </c>
       <c r="T187" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U187" s="2" t="s">
         <v>1486</v>
@@ -55577,7 +55607,7 @@
         <v>2087</v>
       </c>
       <c r="T188" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U188" s="2" t="s">
         <v>1486</v>
@@ -55649,7 +55679,7 @@
         <v>2105</v>
       </c>
       <c r="T189" s="2" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="U189" s="74" t="s">
         <v>2076</v>
@@ -55781,7 +55811,7 @@
         <v>2087</v>
       </c>
       <c r="T191" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U191" s="2" t="s">
         <v>1486</v>
@@ -55919,7 +55949,7 @@
         <v>2107</v>
       </c>
       <c r="T193" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="U193" s="2" t="s">
         <v>1553</v>
@@ -55985,7 +56015,7 @@
         <v>2108</v>
       </c>
       <c r="T194" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U194" s="2" t="s">
         <v>1478</v>
@@ -56003,7 +56033,7 @@
         <v>2318</v>
       </c>
       <c r="Z194" s="2" t="str">
-        <f t="shared" ref="Z194:Z203" si="3">IF(LEN(TRIM(L194))=0,"",$L$1 &amp; " - " &amp; L194 &amp; "; ") &amp; IF(LEN(TRIM(M194))=0,"",$M$1 &amp; " - " &amp; M194 &amp; "; ") &amp; IF(LEN(TRIM(N194))=0,"",$N$1 &amp; " - " &amp; N194 &amp; "; ") &amp; IF(LEN(TRIM(O194))=0,"",$O$1 &amp; " - " &amp; O194 &amp; "; ") &amp; IF(LEN(TRIM(P194))=0,"",$P$1 &amp; " - " &amp; P194 &amp; "; ") &amp; IF(LEN(TRIM(Q194))=0,"",$Q$1 &amp; " - " &amp; Q194 &amp; "; ") &amp; IF(LEN(TRIM(R194))=0,"",$R$1 &amp; " - " &amp; R194 &amp; "; ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Food, Fuel, and Materials - x; </v>
       </c>
     </row>
@@ -56063,7 +56093,7 @@
         <v>2109</v>
       </c>
       <c r="T195" s="2" t="s">
-        <v>2354</v>
+        <v>2456</v>
       </c>
       <c r="U195" s="2" t="s">
         <v>1478</v>
@@ -56081,8 +56111,8 @@
         <v>2318</v>
       </c>
       <c r="Z195" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <f t="shared" ref="Z195:Z203" si="3">IF(LEN(TRIM(K195))=0,"",$K$1 &amp; " - " &amp; K195 &amp; "; ") &amp; IF(LEN(TRIM(L195))=0,"",$L$1 &amp; " - " &amp; L195 &amp; "; ") &amp; IF(LEN(TRIM(M195))=0,"",$M$1 &amp; " - " &amp; M195 &amp; "; ") &amp; IF(LEN(TRIM(N195))=0,"",$N$1 &amp; " - " &amp; N195 &amp; "; ") &amp; IF(LEN(TRIM(O195))=0,"",$O$1 &amp; " - " &amp; O195 &amp; "; ") &amp; IF(LEN(TRIM(P195))=0,"",$P$1 &amp; " - " &amp; P195 &amp; "; ") &amp; IF(LEN(TRIM(Q195))=0,"",$Q$1 &amp; " - " &amp; Q195 &amp; "; ") &amp; IF(LEN(TRIM(R195))=0,"",$R$1 &amp; " - " &amp; R195 &amp; "; ")</f>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="196" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -56207,7 +56237,7 @@
         <v>2111</v>
       </c>
       <c r="T197" s="2" t="s">
-        <v>2361</v>
+        <v>2462</v>
       </c>
       <c r="U197" s="2" t="s">
         <v>1478</v>
@@ -56226,7 +56256,7 @@
       </c>
       <c r="Z197" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="198" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -56285,7 +56315,7 @@
         <v>2112</v>
       </c>
       <c r="T198" s="2" t="s">
-        <v>2354</v>
+        <v>2456</v>
       </c>
       <c r="U198" s="2" t="s">
         <v>1478</v>
@@ -56304,7 +56334,7 @@
       </c>
       <c r="Z198" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Food, Fuel, and Materials - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="199" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -56361,7 +56391,7 @@
         <v>2113</v>
       </c>
       <c r="T199" s="2" t="s">
-        <v>2347</v>
+        <v>2452</v>
       </c>
       <c r="U199" s="2" t="s">
         <v>1478</v>
@@ -56380,7 +56410,7 @@
       </c>
       <c r="Z199" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Clean Air - x; Clean and Plentiful Water - x; Climate Stabilization - x; Natural Hazard Mitigation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="200" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -56637,7 +56667,7 @@
         <v>2116</v>
       </c>
       <c r="T203" s="2" t="s">
-        <v>2342</v>
+        <v>2457</v>
       </c>
       <c r="U203" s="2" t="s">
         <v>1492</v>
@@ -56656,7 +56686,7 @@
       </c>
       <c r="Z203" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Recreation, Culture, and Aesthetics - x; </v>
+        <v xml:space="preserve">Biodiversity Conservation - x; Recreation, Culture, and Aesthetics - x; </v>
       </c>
     </row>
     <row r="204" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -56844,7 +56874,7 @@
         <v>2025</v>
       </c>
       <c r="T206" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U206" s="2" t="s">
         <v>1478</v>
@@ -57956,7 +57986,7 @@
         <v>2129</v>
       </c>
       <c r="T222" s="2" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="U222" s="2" t="s">
         <v>1478</v>
@@ -58030,7 +58060,7 @@
         <v>2130</v>
       </c>
       <c r="T223" s="2" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="U223" s="2" t="s">
         <v>1553</v>
@@ -58100,7 +58130,7 @@
         <v>2131</v>
       </c>
       <c r="T224" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="U224" s="2" t="s">
         <v>1553</v>
@@ -58314,7 +58344,7 @@
         <v>2132</v>
       </c>
       <c r="T227" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U227" s="2" t="s">
         <v>1478</v>
@@ -58518,7 +58548,7 @@
         <v>2134</v>
       </c>
       <c r="T230" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="U230" s="74" t="s">
         <v>2076</v>
@@ -58588,7 +58618,7 @@
         <v>2134</v>
       </c>
       <c r="T231" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="U231" s="74" t="s">
         <v>2076</v>
@@ -59450,7 +59480,7 @@
         <v>2137</v>
       </c>
       <c r="T244" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="U244" s="74" t="s">
         <v>1487</v>
@@ -59588,7 +59618,7 @@
         <v>2139</v>
       </c>
       <c r="T246" s="2" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="U246" s="74" t="s">
         <v>1487</v>
@@ -59658,7 +59688,7 @@
         <v>2139</v>
       </c>
       <c r="T247" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="U247" s="74" t="s">
         <v>1487</v>
@@ -59728,7 +59758,7 @@
         <v>2139</v>
       </c>
       <c r="T248" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="U248" s="74" t="s">
         <v>1487</v>
@@ -59800,7 +59830,7 @@
         <v>2082</v>
       </c>
       <c r="T249" s="2" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="U249" s="74" t="s">
         <v>1488</v>
@@ -59870,7 +59900,7 @@
         <v>2140</v>
       </c>
       <c r="T250" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="U250" s="2" t="s">
         <v>1554</v>
@@ -60008,7 +60038,7 @@
         <v>2141</v>
       </c>
       <c r="T252" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="U252" s="2" t="s">
         <v>1554</v>
@@ -60074,7 +60104,7 @@
         <v>2142</v>
       </c>
       <c r="T253" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U253" s="2" t="s">
         <v>1486</v>
@@ -60140,7 +60170,7 @@
         <v>2142</v>
       </c>
       <c r="T254" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U254" s="2" t="s">
         <v>1486</v>
@@ -60206,7 +60236,7 @@
         <v>2087</v>
       </c>
       <c r="T255" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="U255" s="2" t="s">
         <v>1486</v>
@@ -60411,7 +60441,7 @@
         <v>2145</v>
       </c>
       <c r="T258" s="2" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="U258" s="2" t="s">
         <v>1553</v>
@@ -60807,7 +60837,7 @@
         <v>2175</v>
       </c>
       <c r="T264" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U264" s="2" t="s">
         <v>1485</v>
@@ -60881,7 +60911,7 @@
         <v>2175</v>
       </c>
       <c r="T265" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U265" s="2" t="s">
         <v>1485</v>
@@ -60955,7 +60985,7 @@
         <v>2175</v>
       </c>
       <c r="T266" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U266" s="2" t="s">
         <v>1485</v>
@@ -61029,7 +61059,7 @@
         <v>2175</v>
       </c>
       <c r="T267" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U267" s="2" t="s">
         <v>1485</v>
@@ -61105,7 +61135,7 @@
         <v>2176</v>
       </c>
       <c r="T268" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U268" s="74" t="s">
         <v>2076</v>
@@ -61176,7 +61206,7 @@
         <v>2169</v>
       </c>
       <c r="T269" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="U269" s="2" t="s">
         <v>1493</v>
@@ -61363,7 +61393,7 @@
         <v>2170</v>
       </c>
       <c r="T272" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="U272" s="2" t="s">
         <v>1494</v>
@@ -64448,7 +64478,7 @@
         <v>2060</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="U2" s="74" t="s">
         <v>2278</v>
